--- a/tables/mastertable.xlsx
+++ b/tables/mastertable.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pow_table" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pow_table!$A$1:$R$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RMSE_table!$A$1:$R$37</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -94,7 +94,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,9 +127,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,6 +140,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -184,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,7 +226,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,8 +438,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,34 +558,34 @@
     </row>
     <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5.5165496489468398E-2</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>8.9089089089089094E-2</v>
       </c>
       <c r="I3">
-        <v>0.61799999999999999</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.111</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
@@ -593,16 +600,16 @@
         <v>21</v>
       </c>
       <c r="O3">
-        <v>0.94763343403826805</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="P3">
-        <v>0.999</v>
+        <v>1.0010010010009999E-3</v>
       </c>
       <c r="Q3">
-        <v>0.82</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="R3">
-        <v>0.999</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -610,31 +617,31 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>8.2000000000000003E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F4">
-        <v>5.1999999999999998E-2</v>
+        <v>0.219</v>
       </c>
       <c r="G4">
-        <v>0.103206412825651</v>
+        <v>6.4128256513026005E-2</v>
       </c>
       <c r="H4">
-        <v>0.13213213213213201</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="I4">
-        <v>7.2999999999999995E-2</v>
+        <v>0.108</v>
       </c>
       <c r="J4">
-        <v>0.11700000000000001</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -649,16 +656,16 @@
         <v>21</v>
       </c>
       <c r="O4">
-        <v>1.89655172413793E-2</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>5.0301810865191103E-3</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>6.6000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="R4">
-        <v>8.2000000000000003E-2</v>
+        <v>0.13600000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -666,7 +673,7 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -675,51 +682,51 @@
         <v>2</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5">
+        <v>0.94763343403826805</v>
+      </c>
+      <c r="P5">
         <v>0.999</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.98793969849246199</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0.439</v>
-      </c>
-      <c r="J5">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5">
-        <v>0.86231155778894497</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
       <c r="Q5">
-        <v>0.751</v>
+        <v>0.82</v>
       </c>
       <c r="R5">
-        <v>0.98799999999999999</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -731,22 +738,22 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>5.0999999999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>9.9000000000000005E-2</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>5.5165496489468398E-2</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>8.9089089089089094E-2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>6.9000000000000006E-2</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="J6">
-        <v>0.111</v>
+        <v>0.998</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -761,16 +768,16 @@
         <v>21</v>
       </c>
       <c r="O6">
-        <v>1.9607843137254902E-2</v>
+        <v>0.78880407124681895</v>
       </c>
       <c r="P6">
-        <v>1.0010010010009999E-3</v>
+        <v>0.99398797595190402</v>
       </c>
       <c r="Q6">
-        <v>4.8000000000000001E-2</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="R6">
-        <v>6.5000000000000002E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -781,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
@@ -799,10 +806,10 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0.51400000000000001</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="J7">
-        <v>0.998</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -817,13 +824,13 @@
         <v>21</v>
       </c>
       <c r="O7">
-        <v>0.78880407124681895</v>
+        <v>0.69105691056910601</v>
       </c>
       <c r="P7">
-        <v>0.99398797595190402</v>
+        <v>0.97258883248730998</v>
       </c>
       <c r="Q7">
-        <v>0.84799999999999998</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -837,28 +844,28 @@
         <v>0.2</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>0.09</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F8">
-        <v>9.1999999999999998E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="G8">
-        <v>8.3083083083083098E-2</v>
+        <v>0.103206412825651</v>
       </c>
       <c r="H8">
-        <v>8.1000000000000003E-2</v>
+        <v>0.13213213213213201</v>
       </c>
       <c r="I8">
-        <v>0.113</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="J8">
-        <v>0.221</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="K8" t="s">
         <v>21</v>
@@ -873,21 +880,21 @@
         <v>21</v>
       </c>
       <c r="O8">
-        <v>4.5095828635851199E-3</v>
+        <v>1.89655172413793E-2</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>5.0301810865191103E-3</v>
       </c>
       <c r="Q8">
-        <v>6.3E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="R8">
-        <v>5.8999999999999997E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0.2</v>
@@ -899,22 +906,22 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.09</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="G9">
-        <v>0.99396378269617702</v>
+        <v>8.3083083083083098E-2</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I9">
-        <v>0.28299999999999997</v>
+        <v>0.113</v>
       </c>
       <c r="J9">
-        <v>0.84099999999999997</v>
+        <v>0.221</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
@@ -929,16 +936,16 @@
         <v>21</v>
       </c>
       <c r="O9">
-        <v>0.61941112322791703</v>
+        <v>4.5095828635851199E-3</v>
       </c>
       <c r="P9">
-        <v>0.99399999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.74399999999999999</v>
+        <v>6.3E-2</v>
       </c>
       <c r="R9">
-        <v>0.995</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -946,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -955,22 +962,22 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>7.2999999999999995E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F10">
-        <v>0.219</v>
+        <v>0.185</v>
       </c>
       <c r="G10">
-        <v>6.4128256513026005E-2</v>
+        <v>8.5085085085085096E-2</v>
       </c>
       <c r="H10">
-        <v>0.13400000000000001</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="I10">
-        <v>0.108</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="J10">
-        <v>0.40200000000000002</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="K10" t="s">
         <v>21</v>
@@ -985,16 +992,16 @@
         <v>21</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>4.2194092827004199E-3</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.04</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="R10">
-        <v>0.13600000000000001</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -1002,31 +1009,31 @@
         <v>0.5</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.98793969849246199</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.46300000000000002</v>
+        <v>0.439</v>
       </c>
       <c r="J11">
-        <v>0.98299999999999998</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="K11" t="s">
         <v>21</v>
@@ -1041,48 +1048,48 @@
         <v>21</v>
       </c>
       <c r="O11">
-        <v>0.69105691056910601</v>
+        <v>0.86231155778894497</v>
       </c>
       <c r="P11">
-        <v>0.97258883248730998</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>0.86799999999999999</v>
+        <v>0.751</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B12">
         <v>0.2</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.185</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>8.5085085085085096E-2</v>
+        <v>0.99396378269617702</v>
       </c>
       <c r="H12">
-        <v>5.2999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0.13100000000000001</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="J12">
-        <v>0.44600000000000001</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
@@ -1097,16 +1104,16 @@
         <v>21</v>
       </c>
       <c r="O12">
-        <v>4.2194092827004199E-3</v>
+        <v>0.61941112322791703</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="Q12">
-        <v>5.2999999999999999E-2</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="R12">
-        <v>8.2000000000000003E-2</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -1165,7 +1172,7 @@
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1221,36 +1228,36 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0.69038076152304595</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0.99899799599198402</v>
       </c>
       <c r="I15">
-        <v>0.6</v>
+        <v>0.112</v>
       </c>
       <c r="J15">
-        <v>0.999</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="K15" t="s">
         <v>21</v>
@@ -1265,48 +1272,48 @@
         <v>21</v>
       </c>
       <c r="O15">
-        <v>0.92807745504840899</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="P15">
+        <v>0.122</v>
+      </c>
+      <c r="Q15">
+        <v>0.71</v>
+      </c>
+      <c r="R15">
         <v>0.997</v>
       </c>
-      <c r="Q15">
-        <v>0.93</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
       <c r="B16">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0.625</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.51457286432160798</v>
+        <v>0.77231695085255803</v>
       </c>
       <c r="H16">
-        <v>0.85299999999999998</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0.151</v>
+        <v>0.187</v>
       </c>
       <c r="J16">
-        <v>0.26700000000000002</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="K16" t="s">
         <v>21</v>
@@ -1321,24 +1328,24 @@
         <v>21</v>
       </c>
       <c r="O16">
-        <v>0.24221105527638201</v>
+        <v>2.1233569261880698E-2</v>
       </c>
       <c r="P16">
-        <v>0.44400000000000001</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="Q16">
-        <v>0.52300000000000002</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="R16">
-        <v>0.88900000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.5</v>
       </c>
       <c r="B17">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -1353,16 +1360,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.99899091826437902</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.41599999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="J17">
-        <v>0.98499999999999999</v>
+        <v>0.999</v>
       </c>
       <c r="K17" t="s">
         <v>21</v>
@@ -1377,21 +1384,21 @@
         <v>21</v>
       </c>
       <c r="O17">
-        <v>0.84856753069577096</v>
+        <v>0.92807745504840899</v>
       </c>
       <c r="P17">
         <v>0.997</v>
       </c>
       <c r="Q17">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="R17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1403,22 +1410,22 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0.88200000000000001</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.69038076152304595</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0.99899799599198402</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0.112</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="J18">
-        <v>0.38700000000000001</v>
+        <v>1</v>
       </c>
       <c r="K18" t="s">
         <v>21</v>
@@ -1433,19 +1440,19 @@
         <v>21</v>
       </c>
       <c r="O18">
-        <v>5.8000000000000003E-2</v>
+        <v>0.80813953488372103</v>
       </c>
       <c r="P18">
-        <v>0.122</v>
+        <v>0.98092031425364801</v>
       </c>
       <c r="Q18">
-        <v>0.71</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="R18">
-        <v>0.997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.5</v>
       </c>
@@ -1453,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
@@ -1471,10 +1478,10 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0.53800000000000003</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="K19" t="s">
         <v>21</v>
@@ -1489,19 +1496,19 @@
         <v>21</v>
       </c>
       <c r="O19">
-        <v>0.80813953488372103</v>
+        <v>0.70186335403726696</v>
       </c>
       <c r="P19">
-        <v>0.98092031425364801</v>
+        <v>0.95813953488372094</v>
       </c>
       <c r="Q19">
-        <v>0.91300000000000003</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="R19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1509,28 +1516,28 @@
         <v>0.2</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0.78800000000000003</v>
+        <v>0.625</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.59798994974874398</v>
+        <v>0.51457286432160798</v>
       </c>
       <c r="H20">
-        <v>0.99299999999999999</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="I20">
-        <v>0.129</v>
+        <v>0.151</v>
       </c>
       <c r="J20">
-        <v>0.22900000000000001</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="K20" t="s">
         <v>21</v>
@@ -1545,21 +1552,21 @@
         <v>21</v>
       </c>
       <c r="O20">
-        <v>5.8467741935483902E-2</v>
+        <v>0.24221105527638201</v>
       </c>
       <c r="P20">
-        <v>2.9000000000000001E-2</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="Q20">
-        <v>0.58499999999999996</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="R20">
-        <v>0.80400000000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B21">
         <v>0.2</v>
@@ -1571,22 +1578,22 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0.59798994974874398</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="I21">
-        <v>0.377</v>
+        <v>0.129</v>
       </c>
       <c r="J21">
-        <v>0.94499999999999995</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="K21" t="s">
         <v>21</v>
@@ -1601,24 +1608,24 @@
         <v>21</v>
       </c>
       <c r="O21">
-        <v>0.64851485148514898</v>
+        <v>5.8467741935483902E-2</v>
       </c>
       <c r="P21">
-        <v>0.83558792924037495</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="Q21">
-        <v>0.875</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="R21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.80400000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -1627,22 +1634,22 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0.95399999999999996</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.77231695085255803</v>
+        <v>0.66633064516129004</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.187</v>
+        <v>0.15</v>
       </c>
       <c r="J22">
-        <v>0.72299999999999998</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="K22" t="s">
         <v>21</v>
@@ -1657,27 +1664,27 @@
         <v>21</v>
       </c>
       <c r="O22">
-        <v>2.1233569261880698E-2</v>
+        <v>3.5639412997903602E-2</v>
       </c>
       <c r="P22">
-        <v>1.2999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="Q22">
-        <v>0.80800000000000005</v>
+        <v>0.623</v>
       </c>
       <c r="R22">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
@@ -1689,16 +1696,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0.99899091826437902</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.51400000000000001</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="J23">
-        <v>0.996</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="K23" t="s">
         <v>21</v>
@@ -1713,48 +1720,48 @@
         <v>21</v>
       </c>
       <c r="O23">
-        <v>0.70186335403726696</v>
+        <v>0.84856753069577096</v>
       </c>
       <c r="P23">
-        <v>0.95813953488372094</v>
+        <v>0.997</v>
       </c>
       <c r="Q23">
-        <v>0.91900000000000004</v>
+        <v>0.89</v>
       </c>
       <c r="R23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B24">
         <v>0.2</v>
       </c>
       <c r="C24" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0.84399999999999997</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.66633064516129004</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.15</v>
+        <v>0.377</v>
       </c>
       <c r="J24">
-        <v>0.35499999999999998</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="K24" t="s">
         <v>21</v>
@@ -1769,19 +1776,19 @@
         <v>21</v>
       </c>
       <c r="O24">
-        <v>3.5639412997903602E-2</v>
+        <v>0.64851485148514898</v>
       </c>
       <c r="P24">
-        <v>4.0000000000000001E-3</v>
+        <v>0.83558792924037495</v>
       </c>
       <c r="Q24">
-        <v>0.623</v>
+        <v>0.875</v>
       </c>
       <c r="R24">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.5</v>
       </c>
@@ -1837,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1893,7 +1900,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.5</v>
       </c>
@@ -1949,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -2005,7 +2012,7 @@
         <v>0.73899999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.5</v>
       </c>
@@ -2511,16 +2518,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:R37">
-    <filterColumn colId="2">
+    <filterColumn colId="3">
       <filters>
-        <filter val="none"/>
+        <filter val="med"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="high"/>
-      </filters>
-    </filterColumn>
+    <sortState ref="A14:R25">
+      <sortCondition ref="B1:B37"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2531,8 +2536,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14:R17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14:R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2651,58 +2656,58 @@
     </row>
     <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>1.8979897320965701E-3</v>
+        <v>1.9988410712641999E-2</v>
       </c>
       <c r="F3">
-        <v>-1.18349616146373E-3</v>
+        <v>1.7735275425117599E-2</v>
       </c>
       <c r="G3">
-        <v>-1.3841750282518399E-2</v>
+        <v>5.77808971190599E-3</v>
       </c>
       <c r="H3">
-        <v>-1.16535098224836E-2</v>
+        <v>7.1024461817675898E-3</v>
       </c>
       <c r="I3">
-        <v>-5.7305147571039002E-2</v>
+        <v>-8.5731275755183606E-2</v>
       </c>
       <c r="J3">
-        <v>-1.15057092421043E-2</v>
+        <v>-7.0543780639617498E-2</v>
       </c>
       <c r="K3">
-        <v>-1.01905016916216E-2</v>
+        <v>0.122160410095405</v>
       </c>
       <c r="L3">
-        <v>-7.8989691635408495E-4</v>
+        <v>4.4937225982296901E-2</v>
       </c>
       <c r="M3">
-        <v>-1.0073435386266601E-2</v>
+        <v>0.30646771096867098</v>
       </c>
       <c r="N3">
-        <v>-4.7477725390623103E-3</v>
+        <v>0.16862510755847901</v>
       </c>
       <c r="O3">
-        <v>-1.02243943770627E-2</v>
+        <v>-1.8401549472051699E-2</v>
       </c>
       <c r="P3">
-        <v>-5.0351749472461304E-3</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>-9.8785333268454002E-6</v>
+        <v>-1.7172166913961499E-2</v>
+      </c>
+      <c r="Q3">
+        <v>1.5913318922180699E-2</v>
       </c>
       <c r="R3">
-        <v>-3.3921038283148699E-3</v>
+        <v>1.5730301012316299E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -2710,55 +2715,55 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>5.6836452173935903E-3</v>
+        <v>3.6686626524128199E-2</v>
       </c>
       <c r="F4">
-        <v>1.6749460605477199E-3</v>
+        <v>3.0688202594752901E-2</v>
       </c>
       <c r="G4">
-        <v>-1.2833669549062E-2</v>
+        <v>2.2506310812364601E-2</v>
       </c>
       <c r="H4">
-        <v>-1.6341995563796199E-2</v>
+        <v>1.7255764047285599E-2</v>
       </c>
       <c r="I4">
-        <v>-1.5964737410832701E-2</v>
+        <v>-0.190318460820672</v>
       </c>
       <c r="J4">
-        <v>-6.6359634278547498E-3</v>
+        <v>-0.16355782452297099</v>
       </c>
       <c r="K4">
-        <v>0.298618392614105</v>
+        <v>9.4931434991645205E-2</v>
       </c>
       <c r="L4">
-        <v>0.27097873120371702</v>
+        <v>2.1825690360156299E-2</v>
       </c>
       <c r="M4">
-        <v>0.39715509730957599</v>
+        <v>0.26191069472832801</v>
       </c>
       <c r="N4">
-        <v>0.30789435069872201</v>
+        <v>0.11274353707760899</v>
       </c>
       <c r="O4">
-        <v>2.2669389045402302E-2</v>
+        <v>-3.2732612574727801E-2</v>
       </c>
       <c r="P4">
-        <v>2.73299046681537E-3</v>
+        <v>-3.3997937450449697E-2</v>
       </c>
       <c r="Q4">
-        <v>5.60710698790949E-3</v>
+        <v>2.8240514813802901E-2</v>
       </c>
       <c r="R4">
-        <v>2.0179915770247598E-3</v>
+        <v>2.4668847003642101E-2</v>
       </c>
     </row>
     <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -2766,7 +2771,7 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -2775,51 +2780,51 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>-4.0022930450316404E-3</v>
+        <v>1.8979897320965701E-3</v>
       </c>
       <c r="F5">
-        <v>-1.7452289117135E-3</v>
+        <v>-1.18349616146373E-3</v>
       </c>
       <c r="G5">
-        <v>-2.4566076485243699E-2</v>
+        <v>-1.3841750282518399E-2</v>
       </c>
       <c r="H5">
-        <v>-2.7084539491030499E-2</v>
+        <v>-1.16535098224836E-2</v>
       </c>
       <c r="I5">
-        <v>-9.6467984547592797E-2</v>
+        <v>-5.7305147571039002E-2</v>
       </c>
       <c r="J5">
-        <v>-3.0313109625157701E-2</v>
+        <v>-1.15057092421043E-2</v>
       </c>
       <c r="K5">
-        <v>6.8136108954122601E-2</v>
+        <v>-1.01905016916216E-2</v>
       </c>
       <c r="L5">
-        <v>8.0320523326276802E-2</v>
+        <v>-7.8989691635408495E-4</v>
       </c>
       <c r="M5">
-        <v>6.6583356537373697E-2</v>
+        <v>-1.0073435386266601E-2</v>
       </c>
       <c r="N5">
-        <v>7.4737216449395794E-2</v>
+        <v>-4.7477725390623103E-3</v>
       </c>
       <c r="O5">
-        <v>-1.16554209941198E-2</v>
+        <v>-1.02243943770627E-2</v>
       </c>
       <c r="P5">
-        <v>-7.3937828836287403E-3</v>
-      </c>
-      <c r="Q5">
-        <v>-8.5509489730460006E-3</v>
+        <v>-5.0351749472461304E-3</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>-9.8785333268454002E-6</v>
       </c>
       <c r="R5">
-        <v>-1.6958003373259301E-2</v>
+        <v>-3.3921038283148699E-3</v>
       </c>
     </row>
     <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2831,46 +2836,46 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>1.9988410712641999E-2</v>
+        <v>4.5050862553151397E-2</v>
       </c>
       <c r="F6">
-        <v>1.7735275425117599E-2</v>
+        <v>4.0376038361842302E-2</v>
       </c>
       <c r="G6">
-        <v>5.77808971190599E-3</v>
+        <v>1.12473819934192E-2</v>
       </c>
       <c r="H6">
-        <v>7.1024461817675898E-3</v>
+        <v>-3.0143782166623602E-3</v>
       </c>
       <c r="I6">
-        <v>-8.5731275755183606E-2</v>
+        <v>-0.147913237044589</v>
       </c>
       <c r="J6">
-        <v>-7.0543780639617498E-2</v>
+        <v>-4.6331406982574999E-2</v>
       </c>
       <c r="K6">
-        <v>0.122160410095405</v>
+        <v>-6.9206368199581897E-2</v>
       </c>
       <c r="L6">
-        <v>4.4937225982296901E-2</v>
+        <v>-4.6837179231984598E-2</v>
       </c>
       <c r="M6">
-        <v>0.30646771096867098</v>
+        <v>-6.5460102864496994E-2</v>
       </c>
       <c r="N6">
-        <v>0.16862510755847901</v>
+        <v>-5.1345740471289002E-2</v>
       </c>
       <c r="O6">
-        <v>-1.8401549472051699E-2</v>
+        <v>-6.5495977471045005E-2</v>
       </c>
       <c r="P6">
-        <v>-1.7172166913961499E-2</v>
+        <v>-4.3995614360332898E-2</v>
       </c>
       <c r="Q6">
-        <v>1.5913318922180699E-2</v>
+        <v>1.12084424709421E-2</v>
       </c>
       <c r="R6">
-        <v>1.5730301012316299E-2</v>
+        <v>5.9057063107764499E-3</v>
       </c>
     </row>
     <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -2881,52 +2886,52 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>4.5050862553151397E-2</v>
+        <v>5.92286936926507E-2</v>
       </c>
       <c r="F7">
-        <v>4.0376038361842302E-2</v>
+        <v>5.1301687969577701E-2</v>
       </c>
       <c r="G7">
-        <v>1.12473819934192E-2</v>
+        <v>1.8285762804244501E-2</v>
       </c>
       <c r="H7">
-        <v>-3.0143782166623602E-3</v>
+        <v>-1.12390746469822E-3</v>
       </c>
       <c r="I7">
-        <v>-0.147913237044589</v>
+        <v>-0.18604566396092501</v>
       </c>
       <c r="J7">
-        <v>-4.6331406982574999E-2</v>
+        <v>-6.6649596282672599E-2</v>
       </c>
       <c r="K7">
-        <v>-6.9206368199581897E-2</v>
+        <v>-8.7171004294149895E-2</v>
       </c>
       <c r="L7">
-        <v>-4.6837179231984598E-2</v>
+        <v>-6.8369290794055501E-2</v>
       </c>
       <c r="M7">
-        <v>-6.5460102864496994E-2</v>
+        <v>-8.1807567207179493E-2</v>
       </c>
       <c r="N7">
-        <v>-5.1345740471289002E-2</v>
+        <v>-7.2692870291937398E-2</v>
       </c>
       <c r="O7">
-        <v>-6.5495977471045005E-2</v>
+        <v>-9.8379953639831805E-2</v>
       </c>
       <c r="P7">
-        <v>-4.3995614360332898E-2</v>
+        <v>-6.9482930148040495E-2</v>
       </c>
       <c r="Q7">
-        <v>1.12084424709421E-2</v>
+        <v>1.3793995174850001E-2</v>
       </c>
       <c r="R7">
-        <v>5.9057063107764499E-3</v>
+        <v>6.6888463294340001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -2937,57 +2942,57 @@
         <v>0.2</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>2.59296347427607E-2</v>
+        <v>5.6836452173935903E-3</v>
       </c>
       <c r="F8">
-        <v>2.3502804275462901E-2</v>
+        <v>1.6749460605477199E-3</v>
       </c>
       <c r="G8">
-        <v>5.02923371957516E-3</v>
+        <v>-1.2833669549062E-2</v>
       </c>
       <c r="H8">
-        <v>-1.68875262903074E-3</v>
+        <v>-1.6341995563796199E-2</v>
       </c>
       <c r="I8">
-        <v>-0.15900636405698501</v>
+        <v>-1.5964737410832701E-2</v>
       </c>
       <c r="J8">
-        <v>-0.13148446138978301</v>
+        <v>-6.6359634278547498E-3</v>
       </c>
       <c r="K8">
-        <v>0.19240724992900499</v>
+        <v>0.298618392614105</v>
       </c>
       <c r="L8">
-        <v>0.116340702308715</v>
+        <v>0.27097873120371702</v>
       </c>
       <c r="M8">
-        <v>0.32017698910209502</v>
+        <v>0.39715509730957599</v>
       </c>
       <c r="N8">
-        <v>0.18032891719617</v>
+        <v>0.30789435069872201</v>
       </c>
       <c r="O8">
-        <v>-5.0808708925959102E-2</v>
+        <v>2.2669389045402302E-2</v>
       </c>
       <c r="P8">
-        <v>-6.23384237543416E-2</v>
+        <v>2.73299046681537E-3</v>
       </c>
       <c r="Q8">
-        <v>1.18946031777827E-2</v>
+        <v>5.60710698790949E-3</v>
       </c>
       <c r="R8">
-        <v>9.7290222042860797E-3</v>
+        <v>2.0179915770247598E-3</v>
       </c>
     </row>
     <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0.2</v>
@@ -2999,46 +3004,46 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>4.0203508496508E-2</v>
+        <v>2.59296347427607E-2</v>
       </c>
       <c r="F9">
-        <v>3.8621626679799403E-2</v>
+        <v>2.3502804275462901E-2</v>
       </c>
       <c r="G9">
-        <v>-8.6453755778050298E-3</v>
+        <v>5.02923371957516E-3</v>
       </c>
       <c r="H9">
-        <v>-4.82196443222839E-2</v>
+        <v>-1.68875262903074E-3</v>
       </c>
       <c r="I9">
-        <v>-0.23811681962991199</v>
+        <v>-0.15900636405698501</v>
       </c>
       <c r="J9">
-        <v>-0.111322408125949</v>
+        <v>-0.13148446138978301</v>
       </c>
       <c r="K9">
-        <v>-6.5627155864965104E-3</v>
+        <v>0.19240724992900499</v>
       </c>
       <c r="L9">
-        <v>5.8823529000989602E-3</v>
+        <v>0.116340702308715</v>
       </c>
       <c r="M9">
-        <v>-3.4851041177386302E-3</v>
+        <v>0.32017698910209502</v>
       </c>
       <c r="N9">
-        <v>-1.51645356331054E-3</v>
+        <v>0.18032891719617</v>
       </c>
       <c r="O9">
-        <v>-0.117036052915578</v>
+        <v>-5.0808708925959102E-2</v>
       </c>
       <c r="P9">
-        <v>-0.121483131925457</v>
+        <v>-6.23384237543416E-2</v>
       </c>
       <c r="Q9">
-        <v>-6.1060809536399498E-3</v>
+        <v>1.18946031777827E-2</v>
       </c>
       <c r="R9">
-        <v>-2.5635488220210501E-2</v>
+        <v>9.7290222042860797E-3</v>
       </c>
     </row>
     <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -3046,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -3055,46 +3060,46 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>3.6686626524128199E-2</v>
+        <v>4.19692778526886E-2</v>
       </c>
       <c r="F10">
-        <v>3.0688202594752901E-2</v>
+        <v>4.2430195257195102E-2</v>
       </c>
       <c r="G10">
-        <v>2.2506310812364601E-2</v>
+        <v>1.8664538926842399E-2</v>
       </c>
       <c r="H10">
-        <v>1.7255764047285599E-2</v>
+        <v>1.16552615984706E-2</v>
       </c>
       <c r="I10">
-        <v>-0.190318460820672</v>
+        <v>-0.28851759303035501</v>
       </c>
       <c r="J10">
-        <v>-0.16355782452297099</v>
+        <v>-0.23920208703321699</v>
       </c>
       <c r="K10">
-        <v>9.4931434991645205E-2</v>
+        <v>0.15299970063309201</v>
       </c>
       <c r="L10">
-        <v>2.1825690360156299E-2</v>
+        <v>7.6906160630128007E-2</v>
       </c>
       <c r="M10">
-        <v>0.26191069472832801</v>
+        <v>0.28597252563770098</v>
       </c>
       <c r="N10">
-        <v>0.11274353707760899</v>
+        <v>0.14366874122030601</v>
       </c>
       <c r="O10">
-        <v>-3.2732612574727801E-2</v>
+        <v>-8.2187128900451906E-2</v>
       </c>
       <c r="P10">
-        <v>-3.3997937450449697E-2</v>
+        <v>-9.43811216285773E-2</v>
       </c>
       <c r="Q10">
-        <v>2.8240514813802901E-2</v>
+        <v>1.63882840910872E-2</v>
       </c>
       <c r="R10">
-        <v>2.4668847003642101E-2</v>
+        <v>1.7658931018360701E-2</v>
       </c>
     </row>
     <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -3102,111 +3107,111 @@
         <v>0.5</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>5.92286936926507E-2</v>
+        <v>-4.0022930450316404E-3</v>
       </c>
       <c r="F11">
-        <v>5.1301687969577701E-2</v>
+        <v>-1.7452289117135E-3</v>
       </c>
       <c r="G11">
-        <v>1.8285762804244501E-2</v>
+        <v>-2.4566076485243699E-2</v>
       </c>
       <c r="H11">
-        <v>-1.12390746469822E-3</v>
+        <v>-2.7084539491030499E-2</v>
       </c>
       <c r="I11">
-        <v>-0.18604566396092501</v>
+        <v>-9.6467984547592797E-2</v>
       </c>
       <c r="J11">
-        <v>-6.6649596282672599E-2</v>
+        <v>-3.0313109625157701E-2</v>
       </c>
       <c r="K11">
-        <v>-8.7171004294149895E-2</v>
+        <v>6.8136108954122601E-2</v>
       </c>
       <c r="L11">
-        <v>-6.8369290794055501E-2</v>
+        <v>8.0320523326276802E-2</v>
       </c>
       <c r="M11">
-        <v>-8.1807567207179493E-2</v>
+        <v>6.6583356537373697E-2</v>
       </c>
       <c r="N11">
-        <v>-7.2692870291937398E-2</v>
+        <v>7.4737216449395794E-2</v>
       </c>
       <c r="O11">
-        <v>-9.8379953639831805E-2</v>
+        <v>-1.16554209941198E-2</v>
       </c>
       <c r="P11">
-        <v>-6.9482930148040495E-2</v>
+        <v>-7.3937828836287403E-3</v>
       </c>
       <c r="Q11">
-        <v>1.3793995174850001E-2</v>
+        <v>-8.5509489730460006E-3</v>
       </c>
       <c r="R11">
-        <v>6.6888463294340001E-3</v>
+        <v>-1.6958003373259301E-2</v>
       </c>
     </row>
     <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B12">
         <v>0.2</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>4.19692778526886E-2</v>
+        <v>4.0203508496508E-2</v>
       </c>
       <c r="F12">
-        <v>4.2430195257195102E-2</v>
+        <v>3.8621626679799403E-2</v>
       </c>
       <c r="G12">
-        <v>1.8664538926842399E-2</v>
+        <v>-8.6453755778050298E-3</v>
       </c>
       <c r="H12">
-        <v>1.16552615984706E-2</v>
+        <v>-4.82196443222839E-2</v>
       </c>
       <c r="I12">
-        <v>-0.28851759303035501</v>
+        <v>-0.23811681962991199</v>
       </c>
       <c r="J12">
-        <v>-0.23920208703321699</v>
+        <v>-0.111322408125949</v>
       </c>
       <c r="K12">
-        <v>0.15299970063309201</v>
+        <v>-6.5627155864965104E-3</v>
       </c>
       <c r="L12">
-        <v>7.6906160630128007E-2</v>
+        <v>5.8823529000989602E-3</v>
       </c>
       <c r="M12">
-        <v>0.28597252563770098</v>
+        <v>-3.4851041177386302E-3</v>
       </c>
       <c r="N12">
-        <v>0.14366874122030601</v>
+        <v>-1.51645356331054E-3</v>
       </c>
       <c r="O12">
-        <v>-8.2187128900451906E-2</v>
+        <v>-0.117036052915578</v>
       </c>
       <c r="P12">
-        <v>-9.43811216285773E-2</v>
+        <v>-0.121483131925457</v>
       </c>
       <c r="Q12">
-        <v>1.63882840910872E-2</v>
+        <v>-6.1060809536399498E-3</v>
       </c>
       <c r="R12">
-        <v>1.7658931018360701E-2</v>
+        <v>-2.5635488220210501E-2</v>
       </c>
     </row>
     <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -3265,7 +3270,7 @@
         <v>-3.0174714367141701E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -3278,167 +3283,167 @@
       <c r="D14" t="s">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>0.15101020839677901</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>0.14362598977361499</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>0.121511981024835</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>0.101266340915459</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>-1.3793219013222901E-2</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <v>-7.3048636209702396E-3</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <v>0.13999481080562201</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <v>7.4598927535228704E-2</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="2">
         <v>0.28143097653967503</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="2">
         <v>0.151797989036069</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="2">
         <v>0.12048829972915499</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="2">
         <v>0.103284455634408</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="2">
         <v>0.14404485644593601</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="2">
         <v>0.137178737398648</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
-      <c r="E15">
-        <v>5.8306893330377897E-2</v>
-      </c>
-      <c r="F15">
-        <v>5.1440260210630501E-2</v>
-      </c>
-      <c r="G15">
-        <v>2.7947650845734501E-2</v>
-      </c>
-      <c r="H15">
-        <v>7.8748339854390597E-3</v>
-      </c>
-      <c r="I15">
-        <v>-0.107638806712506</v>
-      </c>
-      <c r="J15">
-        <v>-3.6483364457036697E-2</v>
-      </c>
-      <c r="K15">
-        <v>-7.8715728574663101E-3</v>
-      </c>
-      <c r="L15">
-        <v>-5.5334388133423495E-4</v>
-      </c>
-      <c r="M15">
-        <v>-1.06646837984084E-2</v>
-      </c>
-      <c r="N15">
-        <v>-4.1624946625766603E-3</v>
-      </c>
-      <c r="O15">
-        <v>-9.7009781923979993E-3</v>
-      </c>
-      <c r="P15">
-        <v>-4.3697379783176598E-3</v>
-      </c>
-      <c r="Q15">
-        <v>2.33062760099652E-2</v>
-      </c>
-      <c r="R15">
-        <v>1.65493213740147E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="2">
+        <v>0.239266360883305</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.235104867509003</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.19150273927431499</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.174926993341665</v>
+      </c>
+      <c r="I15" s="2">
+        <v>-0.19460073961028501</v>
+      </c>
+      <c r="J15" s="2">
+        <v>-0.152039688821483</v>
+      </c>
+      <c r="K15" s="2">
+        <v>4.48055435889336E-2</v>
+      </c>
+      <c r="L15" s="2">
+        <v>4.7284615633777904E-3</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.16694012962608501</v>
+      </c>
+      <c r="N15" s="2">
+        <v>5.5075095981304001E-2</v>
+      </c>
+      <c r="O15" s="2">
+        <v>4.0520315206772198E-2</v>
+      </c>
+      <c r="P15" s="2">
+        <v>2.7430147026074301E-2</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0.21623378291529299</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0.20971957314204201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
       <c r="B16">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
       </c>
-      <c r="E16">
-        <v>0.239219321258865</v>
-      </c>
-      <c r="F16">
-        <v>0.23525990128626501</v>
-      </c>
-      <c r="G16">
-        <v>0.192466897835608</v>
-      </c>
-      <c r="H16">
-        <v>0.15520332039871099</v>
-      </c>
-      <c r="I16">
-        <v>5.69009534136291E-2</v>
-      </c>
-      <c r="J16">
-        <v>6.21045180020839E-2</v>
-      </c>
-      <c r="K16">
-        <v>0.25248005131701101</v>
-      </c>
-      <c r="L16">
-        <v>0.26639351524779398</v>
-      </c>
-      <c r="M16">
-        <v>0.30042639921057701</v>
-      </c>
-      <c r="N16">
-        <v>0.266183039854197</v>
-      </c>
-      <c r="O16">
-        <v>0.121574229600988</v>
-      </c>
-      <c r="P16">
-        <v>0.105078397411087</v>
-      </c>
-      <c r="Q16">
-        <v>0.21666926278996901</v>
-      </c>
-      <c r="R16">
-        <v>0.206471985264264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <v>0.29345844797586801</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.28186349570390801</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.22884005433792101</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.21049716232339799</v>
+      </c>
+      <c r="I16" s="2">
+        <v>-0.242638002307727</v>
+      </c>
+      <c r="J16" s="2">
+        <v>-0.211275023053489</v>
+      </c>
+      <c r="K16" s="2">
+        <v>3.6041641173993499E-2</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1.9839514098409401E-3</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.14388390281445201</v>
+      </c>
+      <c r="N16" s="2">
+        <v>4.5726632992433201E-2</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1.57595638871088E-2</v>
+      </c>
+      <c r="P16" s="2">
+        <v>-4.1705158149577997E-3</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.25687835194710001</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0.237439013521656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.5</v>
       </c>
       <c r="B17">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -3446,52 +3451,52 @@
       <c r="D17" t="s">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>0.11389433908187201</v>
-      </c>
-      <c r="F17">
-        <v>0.112089675129059</v>
-      </c>
-      <c r="G17">
-        <v>7.5128216516906599E-2</v>
-      </c>
-      <c r="H17">
-        <v>4.1479393544399903E-2</v>
-      </c>
-      <c r="I17">
-        <v>-0.133458390696196</v>
-      </c>
-      <c r="J17">
-        <v>-1.7175011669822E-3</v>
-      </c>
-      <c r="K17">
-        <v>7.1319446977661294E-2</v>
-      </c>
-      <c r="L17">
-        <v>8.3016105679528801E-2</v>
-      </c>
-      <c r="M17">
-        <v>6.7612052434484801E-2</v>
-      </c>
-      <c r="N17">
-        <v>7.7317002869621704E-2</v>
-      </c>
-      <c r="O17">
-        <v>1.7480822989555101E-2</v>
-      </c>
-      <c r="P17">
-        <v>2.0031549130087999E-2</v>
-      </c>
-      <c r="Q17">
-        <v>6.29731041440732E-2</v>
-      </c>
-      <c r="R17">
-        <v>6.2654626179871803E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <v>5.8306893330377897E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5.1440260210630501E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2.7947650845734501E-2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>7.8748339854390597E-3</v>
+      </c>
+      <c r="I17" s="2">
+        <v>-0.107638806712506</v>
+      </c>
+      <c r="J17" s="2">
+        <v>-3.6483364457036697E-2</v>
+      </c>
+      <c r="K17" s="2">
+        <v>-7.8715728574663101E-3</v>
+      </c>
+      <c r="L17" s="2">
+        <v>-5.5334388133423495E-4</v>
+      </c>
+      <c r="M17" s="2">
+        <v>-1.06646837984084E-2</v>
+      </c>
+      <c r="N17" s="2">
+        <v>-4.1624946625766603E-3</v>
+      </c>
+      <c r="O17" s="2">
+        <v>-9.7009781923979993E-3</v>
+      </c>
+      <c r="P17" s="2">
+        <v>-4.3697379783176598E-3</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>2.33062760099652E-2</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1.65493213740147E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3502,50 +3507,50 @@
       <c r="D18" t="s">
         <v>1</v>
       </c>
-      <c r="E18">
-        <v>0.239266360883305</v>
-      </c>
-      <c r="F18">
-        <v>0.235104867509003</v>
-      </c>
-      <c r="G18">
-        <v>0.19150273927431499</v>
-      </c>
-      <c r="H18">
-        <v>0.174926993341665</v>
-      </c>
-      <c r="I18">
-        <v>-0.19460073961028501</v>
-      </c>
-      <c r="J18">
-        <v>-0.152039688821483</v>
-      </c>
-      <c r="K18">
-        <v>4.48055435889336E-2</v>
-      </c>
-      <c r="L18">
-        <v>4.7284615633777904E-3</v>
-      </c>
-      <c r="M18">
-        <v>0.16694012962608501</v>
-      </c>
-      <c r="N18">
-        <v>5.5075095981304001E-2</v>
-      </c>
-      <c r="O18">
-        <v>4.0520315206772198E-2</v>
-      </c>
-      <c r="P18">
-        <v>2.7430147026074301E-2</v>
-      </c>
-      <c r="Q18">
-        <v>0.21623378291529299</v>
-      </c>
-      <c r="R18">
-        <v>0.20971957314204201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <v>6.6571798087897899E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>6.1965633981018002E-2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2.9059787910422099E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>8.1594052982655093E-3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>-0.16435974913705101</v>
+      </c>
+      <c r="J18" s="2">
+        <v>-5.5133491848898E-2</v>
+      </c>
+      <c r="K18" s="2">
+        <v>-7.2310717287656701E-2</v>
+      </c>
+      <c r="L18" s="2">
+        <v>-4.9330381780653201E-2</v>
+      </c>
+      <c r="M18" s="2">
+        <v>-6.9098247706625301E-2</v>
+      </c>
+      <c r="N18" s="2">
+        <v>-5.3351685811430002E-2</v>
+      </c>
+      <c r="O18" s="2">
+        <v>-5.2313399987964297E-2</v>
+      </c>
+      <c r="P18" s="2">
+        <v>-4.2471420029733503E-2</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>2.1222410010378299E-2</v>
+      </c>
+      <c r="R18" s="2">
+        <v>1.6762639397125099E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.5</v>
       </c>
@@ -3553,55 +3558,55 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
       </c>
-      <c r="E19">
-        <v>6.6571798087897899E-2</v>
-      </c>
-      <c r="F19">
-        <v>6.1965633981018002E-2</v>
-      </c>
-      <c r="G19">
-        <v>2.9059787910422099E-2</v>
-      </c>
-      <c r="H19">
-        <v>8.1594052982655093E-3</v>
-      </c>
-      <c r="I19">
-        <v>-0.16435974913705101</v>
-      </c>
-      <c r="J19">
-        <v>-5.5133491848898E-2</v>
-      </c>
-      <c r="K19">
-        <v>-7.2310717287656701E-2</v>
-      </c>
-      <c r="L19">
-        <v>-4.9330381780653201E-2</v>
-      </c>
-      <c r="M19">
-        <v>-6.9098247706625301E-2</v>
-      </c>
-      <c r="N19">
-        <v>-5.3351685811430002E-2</v>
-      </c>
-      <c r="O19">
-        <v>-5.2313399987964297E-2</v>
-      </c>
-      <c r="P19">
-        <v>-4.2471420029733503E-2</v>
-      </c>
-      <c r="Q19">
-        <v>2.1222410010378299E-2</v>
-      </c>
-      <c r="R19">
-        <v>1.6762639397125099E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <v>7.1266108230930506E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>6.4068392175531105E-2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2.96928883858509E-2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>8.1336281506436403E-3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>-0.17960956454497201</v>
+      </c>
+      <c r="J19" s="2">
+        <v>-6.1267773398507398E-2</v>
+      </c>
+      <c r="K19" s="2">
+        <v>-7.9314192147215398E-2</v>
+      </c>
+      <c r="L19" s="2">
+        <v>-6.5398975094900905E-2</v>
+      </c>
+      <c r="M19" s="2">
+        <v>-7.7855655014137201E-2</v>
+      </c>
+      <c r="N19" s="2">
+        <v>-6.9878269777718299E-2</v>
+      </c>
+      <c r="O19" s="2">
+        <v>-8.3349572843223599E-2</v>
+      </c>
+      <c r="P19" s="2">
+        <v>-5.6575396053497297E-2</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>2.1284631934440398E-2</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1.5832369038278501E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -3609,57 +3614,57 @@
         <v>0.2</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
-      <c r="E20">
-        <v>0.29954899615529901</v>
-      </c>
-      <c r="F20">
-        <v>0.302812833059249</v>
-      </c>
-      <c r="G20">
-        <v>0.230393691917472</v>
-      </c>
-      <c r="H20">
-        <v>0.216523645175763</v>
-      </c>
-      <c r="I20">
-        <v>-0.14403223638683399</v>
-      </c>
-      <c r="J20">
-        <v>-9.9564507818643094E-2</v>
-      </c>
-      <c r="K20">
-        <v>0.12876026853259301</v>
-      </c>
-      <c r="L20">
-        <v>9.1342284710594898E-2</v>
-      </c>
-      <c r="M20">
-        <v>0.20614132501001201</v>
-      </c>
-      <c r="N20">
-        <v>0.119337732724102</v>
-      </c>
-      <c r="O20">
-        <v>-1.1969012946889501E-3</v>
-      </c>
-      <c r="P20">
-        <v>-3.7509677898202302E-2</v>
-      </c>
-      <c r="Q20">
-        <v>0.25355073585853299</v>
-      </c>
-      <c r="R20">
-        <v>0.23249497543071099</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="2">
+        <v>0.239219321258865</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.23525990128626501</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.192466897835608</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.15520332039871099</v>
+      </c>
+      <c r="I20" s="2">
+        <v>5.69009534136291E-2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>6.21045180020839E-2</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.25248005131701101</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.26639351524779398</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.30042639921057701</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.266183039854197</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.121574229600988</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.105078397411087</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.21666926278996901</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0.206471985264264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B21">
         <v>0.2</v>
@@ -3670,55 +3675,55 @@
       <c r="D21" t="s">
         <v>1</v>
       </c>
-      <c r="E21">
-        <v>0.11145285302491401</v>
-      </c>
-      <c r="F21">
-        <v>0.103573102910332</v>
-      </c>
-      <c r="G21">
-        <v>6.0367245688576002E-2</v>
-      </c>
-      <c r="H21">
-        <v>1.6294225258641701E-2</v>
-      </c>
-      <c r="I21">
-        <v>-0.17586890525711901</v>
-      </c>
-      <c r="J21">
-        <v>-5.2988293363050998E-2</v>
-      </c>
-      <c r="K21">
-        <v>-5.0353167844884601E-3</v>
-      </c>
-      <c r="L21">
-        <v>8.4700101956710298E-3</v>
-      </c>
-      <c r="M21">
-        <v>-6.0022370317180896E-3</v>
-      </c>
-      <c r="N21" s="1">
-        <v>-1.9124606999793499E-5</v>
-      </c>
-      <c r="O21">
-        <v>-7.1171540935067695E-2</v>
-      </c>
-      <c r="P21">
-        <v>-0.109792002381825</v>
-      </c>
-      <c r="Q21">
-        <v>4.9774265043798199E-2</v>
-      </c>
-      <c r="R21">
-        <v>4.2025693391004801E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <v>0.29954899615529901</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.302812833059249</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.230393691917472</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.216523645175763</v>
+      </c>
+      <c r="I21" s="2">
+        <v>-0.14403223638683399</v>
+      </c>
+      <c r="J21" s="2">
+        <v>-9.9564507818643094E-2</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.12876026853259301</v>
+      </c>
+      <c r="L21" s="2">
+        <v>9.1342284710594898E-2</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.20614132501001201</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.119337732724102</v>
+      </c>
+      <c r="O21" s="2">
+        <v>-1.1969012946889501E-3</v>
+      </c>
+      <c r="P21" s="2">
+        <v>-3.7509677898202302E-2</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.25355073585853299</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0.23249497543071099</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -3726,162 +3731,162 @@
       <c r="D22" t="s">
         <v>1</v>
       </c>
-      <c r="E22">
-        <v>0.29345844797586801</v>
-      </c>
-      <c r="F22">
-        <v>0.28186349570390801</v>
-      </c>
-      <c r="G22">
-        <v>0.22884005433792101</v>
-      </c>
-      <c r="H22">
-        <v>0.21049716232339799</v>
-      </c>
-      <c r="I22">
-        <v>-0.242638002307727</v>
-      </c>
-      <c r="J22">
-        <v>-0.211275023053489</v>
-      </c>
-      <c r="K22">
-        <v>3.6041641173993499E-2</v>
-      </c>
-      <c r="L22">
-        <v>1.9839514098409401E-3</v>
-      </c>
-      <c r="M22">
-        <v>0.14388390281445201</v>
-      </c>
-      <c r="N22">
-        <v>4.5726632992433201E-2</v>
-      </c>
-      <c r="O22">
-        <v>1.57595638871088E-2</v>
-      </c>
-      <c r="P22">
-        <v>-4.1705158149577997E-3</v>
-      </c>
-      <c r="Q22">
-        <v>0.25687835194710001</v>
-      </c>
-      <c r="R22">
-        <v>0.237439013521656</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="2">
+        <v>0.33061600996464602</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.33231638127119201</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.25592457715115402</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.24314572044879601</v>
+      </c>
+      <c r="I22" s="2">
+        <v>-0.19569142926934099</v>
+      </c>
+      <c r="J22" s="2">
+        <v>-0.16669573692981399</v>
+      </c>
+      <c r="K22" s="2">
+        <v>9.6831977261493604E-2</v>
+      </c>
+      <c r="L22" s="2">
+        <v>5.1875810138307998E-2</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.18629983749485601</v>
+      </c>
+      <c r="N22" s="2">
+        <v>9.2399989800954901E-2</v>
+      </c>
+      <c r="O22" s="2">
+        <v>-1.99405485150237E-2</v>
+      </c>
+      <c r="P22" s="2">
+        <v>-6.9129772516846696E-2</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0.27713087337891401</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.235042433721802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
       </c>
-      <c r="E23">
-        <v>7.1266108230930506E-2</v>
-      </c>
-      <c r="F23">
-        <v>6.4068392175531105E-2</v>
-      </c>
-      <c r="G23">
-        <v>2.96928883858509E-2</v>
-      </c>
-      <c r="H23">
-        <v>8.1336281506436403E-3</v>
-      </c>
-      <c r="I23">
-        <v>-0.17960956454497201</v>
-      </c>
-      <c r="J23">
-        <v>-6.1267773398507398E-2</v>
-      </c>
-      <c r="K23">
-        <v>-7.9314192147215398E-2</v>
-      </c>
-      <c r="L23">
-        <v>-6.5398975094900905E-2</v>
-      </c>
-      <c r="M23">
-        <v>-7.7855655014137201E-2</v>
-      </c>
-      <c r="N23">
-        <v>-6.9878269777718299E-2</v>
-      </c>
-      <c r="O23">
-        <v>-8.3349572843223599E-2</v>
-      </c>
-      <c r="P23">
-        <v>-5.6575396053497297E-2</v>
-      </c>
-      <c r="Q23">
-        <v>2.1284631934440398E-2</v>
-      </c>
-      <c r="R23">
-        <v>1.5832369038278501E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="2">
+        <v>0.11389433908187201</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.112089675129059</v>
+      </c>
+      <c r="G23" s="2">
+        <v>7.5128216516906599E-2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>4.1479393544399903E-2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>-0.133458390696196</v>
+      </c>
+      <c r="J23" s="2">
+        <v>-1.7175011669822E-3</v>
+      </c>
+      <c r="K23" s="2">
+        <v>7.1319446977661294E-2</v>
+      </c>
+      <c r="L23" s="2">
+        <v>8.3016105679528801E-2</v>
+      </c>
+      <c r="M23" s="2">
+        <v>6.7612052434484801E-2</v>
+      </c>
+      <c r="N23" s="2">
+        <v>7.7317002869621704E-2</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1.7480822989555101E-2</v>
+      </c>
+      <c r="P23" s="2">
+        <v>2.0031549130087999E-2</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>6.29731041440732E-2</v>
+      </c>
+      <c r="R23" s="2">
+        <v>6.2654626179871803E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B24">
         <v>0.2</v>
       </c>
       <c r="C24" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
       </c>
-      <c r="E24">
-        <v>0.33061600996464602</v>
-      </c>
-      <c r="F24">
-        <v>0.33231638127119201</v>
-      </c>
-      <c r="G24">
-        <v>0.25592457715115402</v>
-      </c>
-      <c r="H24">
-        <v>0.24314572044879601</v>
-      </c>
-      <c r="I24">
-        <v>-0.19569142926934099</v>
-      </c>
-      <c r="J24">
-        <v>-0.16669573692981399</v>
-      </c>
-      <c r="K24">
-        <v>9.6831977261493604E-2</v>
-      </c>
-      <c r="L24">
-        <v>5.1875810138307998E-2</v>
-      </c>
-      <c r="M24">
-        <v>0.18629983749485601</v>
-      </c>
-      <c r="N24">
-        <v>9.2399989800954901E-2</v>
-      </c>
-      <c r="O24">
-        <v>-1.99405485150237E-2</v>
-      </c>
-      <c r="P24">
-        <v>-6.9129772516846696E-2</v>
-      </c>
-      <c r="Q24">
-        <v>0.27713087337891401</v>
-      </c>
-      <c r="R24">
-        <v>0.235042433721802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="2">
+        <v>0.11145285302491401</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.103573102910332</v>
+      </c>
+      <c r="G24" s="2">
+        <v>6.0367245688576002E-2</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1.6294225258641701E-2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>-0.17586890525711901</v>
+      </c>
+      <c r="J24" s="2">
+        <v>-5.2988293363050998E-2</v>
+      </c>
+      <c r="K24" s="2">
+        <v>-5.0353167844884601E-3</v>
+      </c>
+      <c r="L24" s="2">
+        <v>8.4700101956710298E-3</v>
+      </c>
+      <c r="M24" s="2">
+        <v>-6.0022370317180896E-3</v>
+      </c>
+      <c r="N24" s="2">
+        <v>-1.9124606999793499E-5</v>
+      </c>
+      <c r="O24" s="2">
+        <v>-7.1171540935067695E-2</v>
+      </c>
+      <c r="P24" s="2">
+        <v>-0.109792002381825</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>4.9774265043798199E-2</v>
+      </c>
+      <c r="R24" s="2">
+        <v>4.2025693391004801E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.5</v>
       </c>
@@ -3894,50 +3899,50 @@
       <c r="D25" t="s">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>0.108953935865423</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>0.10414119276319</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>5.9667297532928501E-2</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <v>1.4698066872556601E-2</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <v>-0.18421062171473801</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="2">
         <v>-5.6348117664668698E-2</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="2">
         <v>-3.3594728432535803E-2</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="2">
         <v>-1.48763735948358E-2</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="2">
         <v>-3.1656016242545597E-2</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="2">
         <v>-2.4238639552768601E-2</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="2">
         <v>-0.113152378321241</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="2">
         <v>-0.16489328855951901</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="2">
         <v>4.4277998091515003E-2</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="2">
         <v>3.93388086566544E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -3993,7 +3998,7 @@
         <v>0.24900819764410501</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.5</v>
       </c>
@@ -4049,7 +4054,7 @@
         <v>2.1978122218089601E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -4105,7 +4110,7 @@
         <v>0.25241472564837403</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.5</v>
       </c>
@@ -4611,18 +4616,17 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:R37">
-    <filterColumn colId="2">
+    <filterColumn colId="3">
       <filters>
-        <filter val="none"/>
+        <filter val="med"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="high"/>
-      </filters>
-    </filterColumn>
+    <sortState ref="A14:R25">
+      <sortCondition ref="B1:B37"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4631,8 +4635,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16:R17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4751,58 +4755,58 @@
     </row>
     <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>6.5513389803328798E-2</v>
+        <v>6.6530048307797102E-2</v>
       </c>
       <c r="F3">
-        <v>2.58893925502541E-2</v>
+        <v>3.0187700664462899E-2</v>
       </c>
       <c r="G3">
-        <v>7.1252853157555293E-2</v>
+        <v>6.6257139664621503E-2</v>
       </c>
       <c r="H3">
-        <v>3.17263579177363E-2</v>
+        <v>3.03447686523328E-2</v>
       </c>
       <c r="I3">
-        <v>0.20684924870518001</v>
+        <v>0.286193966921514</v>
       </c>
       <c r="J3">
-        <v>4.5880961843314097E-2</v>
+        <v>0.115448188653393</v>
       </c>
       <c r="K3">
-        <v>0.12794239448429801</v>
+        <v>0.23982393971971999</v>
       </c>
       <c r="L3">
-        <v>4.1914514144367102E-2</v>
+        <v>0.114104739971013</v>
       </c>
       <c r="M3">
-        <v>0.116248839815695</v>
+        <v>0.37557929195248602</v>
       </c>
       <c r="N3">
-        <v>4.0889813377580103E-2</v>
+        <v>0.218368470236561</v>
       </c>
       <c r="O3">
-        <v>9.73834480012368E-2</v>
+        <v>6.7011410119129006E-2</v>
       </c>
       <c r="P3">
-        <v>3.4172850513972897E-2</v>
+        <v>2.9170847884145999E-2</v>
       </c>
       <c r="Q3">
-        <v>7.8988900069419499E-2</v>
+        <v>6.2477376525125999E-2</v>
       </c>
       <c r="R3">
-        <v>3.68551631673774E-2</v>
+        <v>2.8577851521840201E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -4810,55 +4814,55 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>9.4807989683693999E-2</v>
+        <v>7.6883471214127794E-2</v>
       </c>
       <c r="F4">
-        <v>3.7858995918924901E-2</v>
+        <v>4.1768354072819203E-2</v>
       </c>
       <c r="G4">
-        <v>0.104646600987006</v>
+        <v>7.1028991968059493E-2</v>
       </c>
       <c r="H4">
-        <v>5.0765524579781798E-2</v>
+        <v>3.5795120475565802E-2</v>
       </c>
       <c r="I4">
-        <v>0.32724004999148998</v>
+        <v>0.350877306591937</v>
       </c>
       <c r="J4">
-        <v>0.122897295007534</v>
+        <v>0.19539324805761599</v>
       </c>
       <c r="K4">
-        <v>0.40205825552691798</v>
+        <v>0.19735653021866101</v>
       </c>
       <c r="L4">
-        <v>0.32305089025890699</v>
+        <v>6.3809359378246E-2</v>
       </c>
       <c r="M4">
-        <v>0.46067993235754701</v>
+        <v>0.32227994476723798</v>
       </c>
       <c r="N4">
-        <v>0.341450535463796</v>
+        <v>0.14140918708926001</v>
       </c>
       <c r="O4">
-        <v>0.14162222565456101</v>
+        <v>6.7987809941914501E-2</v>
       </c>
       <c r="P4">
-        <v>5.0176895191663802E-2</v>
+        <v>4.1189310825165998E-2</v>
       </c>
       <c r="Q4">
-        <v>9.8827708797841099E-2</v>
+        <v>6.8813986726385903E-2</v>
       </c>
       <c r="R4">
-        <v>4.1265886223872103E-2</v>
+        <v>3.6025837843889401E-2</v>
       </c>
     </row>
     <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -4866,7 +4870,7 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -4875,51 +4879,51 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>9.4802997041032899E-2</v>
+        <v>6.5513389803328798E-2</v>
       </c>
       <c r="F5">
-        <v>3.8344532126553497E-2</v>
+        <v>2.58893925502541E-2</v>
       </c>
       <c r="G5">
-        <v>0.105569713538899</v>
+        <v>7.1252853157555293E-2</v>
       </c>
       <c r="H5">
-        <v>5.8073249203798603E-2</v>
+        <v>3.17263579177363E-2</v>
       </c>
       <c r="I5">
-        <v>0.32983628339080201</v>
+        <v>0.20684924870518001</v>
       </c>
       <c r="J5">
-        <v>9.8733376113595006E-2</v>
+        <v>4.5880961843314097E-2</v>
       </c>
       <c r="K5">
-        <v>0.18017753472952</v>
+        <v>0.12794239448429801</v>
       </c>
       <c r="L5">
-        <v>9.9201831337498006E-2</v>
+        <v>4.1914514144367102E-2</v>
       </c>
       <c r="M5">
-        <v>0.16933808500376499</v>
+        <v>0.116248839815695</v>
       </c>
       <c r="N5">
-        <v>9.3552895373535797E-2</v>
+        <v>4.0889813377580103E-2</v>
       </c>
       <c r="O5">
-        <v>0.14631036410551199</v>
+        <v>9.73834480012368E-2</v>
       </c>
       <c r="P5">
-        <v>5.79673525239639E-2</v>
+        <v>3.4172850513972897E-2</v>
       </c>
       <c r="Q5">
-        <v>0.12873103273865</v>
+        <v>7.8988900069419499E-2</v>
       </c>
       <c r="R5">
-        <v>7.6432720496284301E-2</v>
+        <v>3.68551631673774E-2</v>
       </c>
     </row>
     <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4931,46 +4935,46 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>6.6530048307797102E-2</v>
+        <v>7.5409289923008299E-2</v>
       </c>
       <c r="F6">
-        <v>3.0187700664462899E-2</v>
+        <v>4.6307972859566497E-2</v>
       </c>
       <c r="G6">
-        <v>6.6257139664621503E-2</v>
+        <v>6.8197702561890297E-2</v>
       </c>
       <c r="H6">
-        <v>3.03447686523328E-2</v>
+        <v>2.77341449047998E-2</v>
       </c>
       <c r="I6">
-        <v>0.286193966921514</v>
+        <v>0.26742934118539502</v>
       </c>
       <c r="J6">
-        <v>0.115448188653393</v>
+        <v>6.3553359763076203E-2</v>
       </c>
       <c r="K6">
-        <v>0.23982393971971999</v>
+        <v>0.15401877376491999</v>
       </c>
       <c r="L6">
-        <v>0.114104739971013</v>
+        <v>6.5873017298683598E-2</v>
       </c>
       <c r="M6">
-        <v>0.37557929195248602</v>
+        <v>0.13893931265349499</v>
       </c>
       <c r="N6">
-        <v>0.218368470236561</v>
+        <v>6.8587954945861104E-2</v>
       </c>
       <c r="O6">
-        <v>6.7011410119129006E-2</v>
+        <v>0.13167074229452899</v>
       </c>
       <c r="P6">
-        <v>2.9170847884145999E-2</v>
+        <v>6.1450294302899E-2</v>
       </c>
       <c r="Q6">
-        <v>6.2477376525125999E-2</v>
+        <v>7.2806917572006399E-2</v>
       </c>
       <c r="R6">
-        <v>2.8577851521840201E-2</v>
+        <v>3.1824004434196897E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -4981,52 +4985,52 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>7.5409289923008299E-2</v>
+        <v>8.3091865703305706E-2</v>
       </c>
       <c r="F7">
-        <v>4.6307972859566497E-2</v>
+        <v>5.6477517601398998E-2</v>
       </c>
       <c r="G7">
-        <v>6.8197702561890297E-2</v>
+        <v>6.7849659346193095E-2</v>
       </c>
       <c r="H7">
-        <v>2.77341449047998E-2</v>
+        <v>2.6921188955030002E-2</v>
       </c>
       <c r="I7">
-        <v>0.26742934118539502</v>
+        <v>0.28950977719499799</v>
       </c>
       <c r="J7">
-        <v>6.3553359763076203E-2</v>
+        <v>8.7943051122544205E-2</v>
       </c>
       <c r="K7">
-        <v>0.15401877376491999</v>
+        <v>0.16192703812425599</v>
       </c>
       <c r="L7">
-        <v>6.5873017298683598E-2</v>
+        <v>8.4120779291609896E-2</v>
       </c>
       <c r="M7">
-        <v>0.13893931265349499</v>
+        <v>0.144970540779784</v>
       </c>
       <c r="N7">
-        <v>6.8587954945861104E-2</v>
+        <v>8.6950053055384793E-2</v>
       </c>
       <c r="O7">
-        <v>0.13167074229452899</v>
+        <v>0.15846008852710899</v>
       </c>
       <c r="P7">
-        <v>6.1450294302899E-2</v>
+        <v>8.9422387366986406E-2</v>
       </c>
       <c r="Q7">
-        <v>7.2806917572006399E-2</v>
+        <v>7.4128333303873195E-2</v>
       </c>
       <c r="R7">
-        <v>3.1824004434196897E-2</v>
+        <v>3.3036980864902699E-2</v>
       </c>
     </row>
     <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -5037,57 +5041,57 @@
         <v>0.2</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>0.101911296756359</v>
+        <v>9.4807989683693999E-2</v>
       </c>
       <c r="F8">
-        <v>4.5289436075206198E-2</v>
+        <v>3.7858995918924901E-2</v>
       </c>
       <c r="G8">
-        <v>0.10180259441594799</v>
+        <v>0.104646600987006</v>
       </c>
       <c r="H8">
-        <v>4.63977126113021E-2</v>
+        <v>5.0765524579781798E-2</v>
       </c>
       <c r="I8">
-        <v>0.43613608946893001</v>
+        <v>0.32724004999148998</v>
       </c>
       <c r="J8">
-        <v>0.19819048116527199</v>
+        <v>0.122897295007534</v>
       </c>
       <c r="K8">
-        <v>0.29188749091331501</v>
+        <v>0.40205825552691798</v>
       </c>
       <c r="L8">
-        <v>0.17007542866240799</v>
+        <v>0.32305089025890699</v>
       </c>
       <c r="M8">
-        <v>0.37317150232028801</v>
+        <v>0.46067993235754701</v>
       </c>
       <c r="N8">
-        <v>0.20964217330625901</v>
+        <v>0.341450535463796</v>
       </c>
       <c r="O8">
-        <v>0.117826477578639</v>
+        <v>0.14162222565456101</v>
       </c>
       <c r="P8">
-        <v>7.5320469420662103E-2</v>
+        <v>5.0176895191663802E-2</v>
       </c>
       <c r="Q8">
-        <v>9.9898073287445502E-2</v>
+        <v>9.8827708797841099E-2</v>
       </c>
       <c r="R8">
-        <v>3.9775816338763002E-2</v>
+        <v>4.1265886223872103E-2</v>
       </c>
     </row>
     <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0.2</v>
@@ -5099,46 +5103,46 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>9.7426675459666406E-2</v>
+        <v>0.101911296756359</v>
       </c>
       <c r="F9">
-        <v>5.2500012282682501E-2</v>
+        <v>4.5289436075206198E-2</v>
       </c>
       <c r="G9">
-        <v>0.102689372900949</v>
+        <v>0.10180259441594799</v>
       </c>
       <c r="H9">
-        <v>6.6872752459626206E-2</v>
+        <v>4.63977126113021E-2</v>
       </c>
       <c r="I9">
-        <v>0.42550955610190599</v>
+        <v>0.43613608946893001</v>
       </c>
       <c r="J9">
-        <v>0.17587972466638199</v>
+        <v>0.19819048116527199</v>
       </c>
       <c r="K9">
-        <v>0.15808438921216</v>
+        <v>0.29188749091331501</v>
       </c>
       <c r="L9">
-        <v>5.87733161772249E-2</v>
+        <v>0.17007542866240799</v>
       </c>
       <c r="M9">
-        <v>0.14525180007666599</v>
+        <v>0.37317150232028801</v>
       </c>
       <c r="N9">
-        <v>5.7097094413183502E-2</v>
+        <v>0.20964217330625901</v>
       </c>
       <c r="O9">
-        <v>0.20529719514344399</v>
+        <v>0.117826477578639</v>
       </c>
       <c r="P9">
-        <v>0.13938721831224701</v>
+        <v>7.5320469420662103E-2</v>
       </c>
       <c r="Q9">
-        <v>0.11674603450554499</v>
+        <v>9.9898073287445502E-2</v>
       </c>
       <c r="R9">
-        <v>7.0459236705851802E-2</v>
+        <v>3.9775816338763002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -5146,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -5155,46 +5159,46 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>7.6883471214127794E-2</v>
+        <v>0.109538156665072</v>
       </c>
       <c r="F10">
-        <v>4.1768354072819203E-2</v>
+        <v>5.7790845820229302E-2</v>
       </c>
       <c r="G10">
-        <v>7.1028991968059493E-2</v>
+        <v>9.8966051465439894E-2</v>
       </c>
       <c r="H10">
-        <v>3.5795120475565802E-2</v>
+        <v>4.0957982298044801E-2</v>
       </c>
       <c r="I10">
-        <v>0.350877306591937</v>
+        <v>0.52531666990596704</v>
       </c>
       <c r="J10">
-        <v>0.19539324805761599</v>
+        <v>0.28770568008177599</v>
       </c>
       <c r="K10">
-        <v>0.19735653021866101</v>
+        <v>0.248728281021041</v>
       </c>
       <c r="L10">
-        <v>6.3809359378246E-2</v>
+        <v>0.12535661661835201</v>
       </c>
       <c r="M10">
-        <v>0.32227994476723798</v>
+        <v>0.33672265961943698</v>
       </c>
       <c r="N10">
-        <v>0.14140918708926001</v>
+        <v>0.16812086804655901</v>
       </c>
       <c r="O10">
-        <v>6.7987809941914501E-2</v>
+        <v>0.12474706767725401</v>
       </c>
       <c r="P10">
-        <v>4.1189310825165998E-2</v>
+        <v>0.100875001561906</v>
       </c>
       <c r="Q10">
-        <v>6.8813986726385903E-2</v>
+        <v>0.100643561645521</v>
       </c>
       <c r="R10">
-        <v>3.6025837843889401E-2</v>
+        <v>4.2506316864008999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -5202,111 +5206,111 @@
         <v>0.5</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>8.3091865703305706E-2</v>
+        <v>9.4802997041032899E-2</v>
       </c>
       <c r="F11">
-        <v>5.6477517601398998E-2</v>
+        <v>3.8344532126553497E-2</v>
       </c>
       <c r="G11">
-        <v>6.7849659346193095E-2</v>
+        <v>0.105569713538899</v>
       </c>
       <c r="H11">
-        <v>2.6921188955030002E-2</v>
+        <v>5.8073249203798603E-2</v>
       </c>
       <c r="I11">
-        <v>0.28950977719499799</v>
+        <v>0.32983628339080201</v>
       </c>
       <c r="J11">
-        <v>8.7943051122544205E-2</v>
+        <v>9.8733376113595006E-2</v>
       </c>
       <c r="K11">
-        <v>0.16192703812425599</v>
+        <v>0.18017753472952</v>
       </c>
       <c r="L11">
-        <v>8.4120779291609896E-2</v>
+        <v>9.9201831337498006E-2</v>
       </c>
       <c r="M11">
-        <v>0.144970540779784</v>
+        <v>0.16933808500376499</v>
       </c>
       <c r="N11">
-        <v>8.6950053055384793E-2</v>
+        <v>9.3552895373535797E-2</v>
       </c>
       <c r="O11">
-        <v>0.15846008852710899</v>
+        <v>0.14631036410551199</v>
       </c>
       <c r="P11">
-        <v>8.9422387366986406E-2</v>
+        <v>5.79673525239639E-2</v>
       </c>
       <c r="Q11">
-        <v>7.4128333303873195E-2</v>
+        <v>0.12873103273865</v>
       </c>
       <c r="R11">
-        <v>3.3036980864902699E-2</v>
+        <v>7.6432720496284301E-2</v>
       </c>
     </row>
     <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B12">
         <v>0.2</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>0.109538156665072</v>
+        <v>9.7426675459666406E-2</v>
       </c>
       <c r="F12">
-        <v>5.7790845820229302E-2</v>
+        <v>5.2500012282682501E-2</v>
       </c>
       <c r="G12">
-        <v>9.8966051465439894E-2</v>
+        <v>0.102689372900949</v>
       </c>
       <c r="H12">
-        <v>4.0957982298044801E-2</v>
+        <v>6.6872752459626206E-2</v>
       </c>
       <c r="I12">
-        <v>0.52531666990596704</v>
+        <v>0.42550955610190599</v>
       </c>
       <c r="J12">
-        <v>0.28770568008177599</v>
+        <v>0.17587972466638199</v>
       </c>
       <c r="K12">
-        <v>0.248728281021041</v>
+        <v>0.15808438921216</v>
       </c>
       <c r="L12">
-        <v>0.12535661661835201</v>
+        <v>5.87733161772249E-2</v>
       </c>
       <c r="M12">
-        <v>0.33672265961943698</v>
+        <v>0.14525180007666599</v>
       </c>
       <c r="N12">
-        <v>0.16812086804655901</v>
+        <v>5.7097094413183502E-2</v>
       </c>
       <c r="O12">
-        <v>0.12474706767725401</v>
+        <v>0.20529719514344399</v>
       </c>
       <c r="P12">
-        <v>0.100875001561906</v>
+        <v>0.13938721831224701</v>
       </c>
       <c r="Q12">
-        <v>0.100643561645521</v>
+        <v>0.11674603450554499</v>
       </c>
       <c r="R12">
-        <v>4.2506316864008999E-2</v>
+        <v>7.0459236705851802E-2</v>
       </c>
     </row>
     <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -5378,103 +5382,103 @@
       <c r="D14" t="s">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>0.16714642260337001</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>0.14651628004640099</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>0.146410177340704</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>0.11048568199796199</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>0.25794046675709797</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <v>8.2272366922204701E-2</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <v>0.245590356697652</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <v>0.128702860073243</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="2">
         <v>0.34371577735484099</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="2">
         <v>0.18015902359136099</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="2">
         <v>0.15353109738376</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="2">
         <v>0.10953435718177</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="2">
         <v>0.16046012509138699</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="2">
         <v>0.14012604861399899</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
-      <c r="E15">
-        <v>8.0839996334334502E-2</v>
-      </c>
-      <c r="F15">
-        <v>5.6307127844492703E-2</v>
-      </c>
-      <c r="G15">
-        <v>6.9590624311034896E-2</v>
-      </c>
-      <c r="H15">
-        <v>2.8963501069171799E-2</v>
-      </c>
-      <c r="I15">
-        <v>0.22289232148862401</v>
-      </c>
-      <c r="J15">
-        <v>5.4340594476481999E-2</v>
-      </c>
-      <c r="K15">
-        <v>9.8155784768416507E-2</v>
-      </c>
-      <c r="L15">
-        <v>3.66497608941663E-2</v>
-      </c>
-      <c r="M15">
-        <v>9.43265981310899E-2</v>
-      </c>
-      <c r="N15">
-        <v>3.5004885158882101E-2</v>
-      </c>
-      <c r="O15">
-        <v>8.8642514297618394E-2</v>
-      </c>
-      <c r="P15">
-        <v>3.07849591732576E-2</v>
-      </c>
-      <c r="Q15">
-        <v>7.4936396446510498E-2</v>
-      </c>
-      <c r="R15">
-        <v>3.4058241512594997E-2</v>
+      <c r="E15" s="2">
+        <v>0.25162398713143302</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.23712741637079601</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.20595157959721799</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.177390979815056</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.32529067242203802</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.175965072196543</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.107506329656572</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2.0567222834031999E-2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.204251853970109</v>
+      </c>
+      <c r="N15" s="2">
+        <v>6.6931330064934499E-2</v>
+      </c>
+      <c r="O15" s="2">
+        <v>8.1736747598714396E-2</v>
+      </c>
+      <c r="P15" s="2">
+        <v>4.1439854329052797E-2</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0.23004593145792901</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0.21211201779057401</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -5482,55 +5486,55 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
       </c>
-      <c r="E16">
-        <v>0.25859790968361401</v>
-      </c>
-      <c r="F16">
-        <v>0.23911802794981099</v>
-      </c>
-      <c r="G16">
-        <v>0.22394210087820299</v>
-      </c>
-      <c r="H16">
-        <v>0.16515191834257301</v>
-      </c>
-      <c r="I16">
-        <v>0.37609371819406801</v>
-      </c>
-      <c r="J16">
-        <v>0.163935253926311</v>
-      </c>
-      <c r="K16">
-        <v>0.31017464608019002</v>
-      </c>
-      <c r="L16">
-        <v>0.28047877772985103</v>
-      </c>
-      <c r="M16">
-        <v>0.33572574151045698</v>
-      </c>
-      <c r="N16">
-        <v>0.278651522094233</v>
-      </c>
-      <c r="O16">
-        <v>0.19984999674151699</v>
-      </c>
-      <c r="P16">
-        <v>0.12369689019094</v>
-      </c>
-      <c r="Q16">
-        <v>0.24236617546445799</v>
-      </c>
-      <c r="R16">
-        <v>0.215058359551489</v>
+      <c r="E16" s="2">
+        <v>0.304486313767874</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.28355422362135702</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.241106466747874</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.21259011497347099</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.34190164277864299</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.22889312160233399</v>
+      </c>
+      <c r="K16" s="2">
+        <v>8.9176889313481097E-2</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1.2074676949563099E-2</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.17657477395556401</v>
+      </c>
+      <c r="N16" s="2">
+        <v>5.8112313250269998E-2</v>
+      </c>
+      <c r="O16" s="2">
+        <v>6.1213495954800898E-2</v>
+      </c>
+      <c r="P16" s="2">
+        <v>2.5079465221771902E-2</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.26990245831201298</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0.24183533854966399</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -5538,7 +5542,7 @@
         <v>0.5</v>
       </c>
       <c r="B17">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -5546,52 +5550,52 @@
       <c r="D17" t="s">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>0.13841507358189301</v>
-      </c>
-      <c r="F17">
-        <v>0.11706686160904101</v>
-      </c>
-      <c r="G17">
-        <v>0.118702234984286</v>
-      </c>
-      <c r="H17">
-        <v>6.3753974691059007E-2</v>
-      </c>
-      <c r="I17">
-        <v>0.30605460180893301</v>
-      </c>
-      <c r="J17">
-        <v>7.7606295528404604E-2</v>
-      </c>
-      <c r="K17">
-        <v>0.13843205184976501</v>
-      </c>
-      <c r="L17">
-        <v>9.5246935954466094E-2</v>
-      </c>
-      <c r="M17">
-        <v>0.13298073855327999</v>
-      </c>
-      <c r="N17">
-        <v>8.9834418867844698E-2</v>
-      </c>
-      <c r="O17">
-        <v>0.138915894232778</v>
-      </c>
-      <c r="P17">
-        <v>6.1873295502550898E-2</v>
-      </c>
-      <c r="Q17">
-        <v>0.12278884775549199</v>
-      </c>
-      <c r="R17">
-        <v>7.9403975227007595E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <v>8.0839996334334502E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5.6307127844492703E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>6.9590624311034896E-2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2.8963501069171799E-2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.22289232148862401</v>
+      </c>
+      <c r="J17" s="2">
+        <v>5.4340594476481999E-2</v>
+      </c>
+      <c r="K17" s="2">
+        <v>9.8155784768416507E-2</v>
+      </c>
+      <c r="L17" s="2">
+        <v>3.66497608941663E-2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>9.43265981310899E-2</v>
+      </c>
+      <c r="N17" s="2">
+        <v>3.5004885158882101E-2</v>
+      </c>
+      <c r="O17" s="2">
+        <v>8.8642514297618394E-2</v>
+      </c>
+      <c r="P17" s="2">
+        <v>3.07849591732576E-2</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>7.4936396446510498E-2</v>
+      </c>
+      <c r="R17" s="2">
+        <v>3.4058241512594997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -5602,50 +5606,50 @@
       <c r="D18" t="s">
         <v>1</v>
       </c>
-      <c r="E18">
-        <v>0.25162398713143302</v>
-      </c>
-      <c r="F18">
-        <v>0.23712741637079601</v>
-      </c>
-      <c r="G18">
-        <v>0.20595157959721799</v>
-      </c>
-      <c r="H18">
-        <v>0.177390979815056</v>
-      </c>
-      <c r="I18">
-        <v>0.32529067242203802</v>
-      </c>
-      <c r="J18">
-        <v>0.175965072196543</v>
-      </c>
-      <c r="K18">
-        <v>0.107506329656572</v>
-      </c>
-      <c r="L18">
-        <v>2.0567222834031999E-2</v>
-      </c>
-      <c r="M18">
-        <v>0.204251853970109</v>
-      </c>
-      <c r="N18">
-        <v>6.6931330064934499E-2</v>
-      </c>
-      <c r="O18">
-        <v>8.1736747598714396E-2</v>
-      </c>
-      <c r="P18">
-        <v>4.1439854329052797E-2</v>
-      </c>
-      <c r="Q18">
-        <v>0.23004593145792901</v>
-      </c>
-      <c r="R18">
-        <v>0.21211201779057401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <v>8.728233491529E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>6.5933172786461103E-2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>7.2645864822546494E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2.7532562021199601E-2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.26919004685794001</v>
+      </c>
+      <c r="J18" s="2">
+        <v>6.6327438400437699E-2</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.14482117157379501</v>
+      </c>
+      <c r="L18" s="2">
+        <v>6.6353766942395295E-2</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.13231516026887999</v>
+      </c>
+      <c r="N18" s="2">
+        <v>6.8588407681126798E-2</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.109161846750384</v>
+      </c>
+      <c r="P18" s="2">
+        <v>6.1361683357034798E-2</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>7.4626400533980702E-2</v>
+      </c>
+      <c r="R18" s="2">
+        <v>3.4393211327645098E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.5</v>
       </c>
@@ -5653,55 +5657,55 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
       </c>
-      <c r="E19">
-        <v>8.728233491529E-2</v>
-      </c>
-      <c r="F19">
-        <v>6.5933172786461103E-2</v>
-      </c>
-      <c r="G19">
-        <v>7.2645864822546494E-2</v>
-      </c>
-      <c r="H19">
-        <v>2.7532562021199601E-2</v>
-      </c>
-      <c r="I19">
-        <v>0.26919004685794001</v>
-      </c>
-      <c r="J19">
-        <v>6.6327438400437699E-2</v>
-      </c>
-      <c r="K19">
-        <v>0.14482117157379501</v>
-      </c>
-      <c r="L19">
-        <v>6.6353766942395295E-2</v>
-      </c>
-      <c r="M19">
-        <v>0.13231516026887999</v>
-      </c>
-      <c r="N19">
-        <v>6.8588407681126798E-2</v>
-      </c>
-      <c r="O19">
-        <v>0.109161846750384</v>
-      </c>
-      <c r="P19">
-        <v>6.1361683357034798E-2</v>
-      </c>
-      <c r="Q19">
-        <v>7.4626400533980702E-2</v>
-      </c>
-      <c r="R19">
-        <v>3.4393211327645098E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <v>9.0628954745545803E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>6.7997861282698899E-2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>7.2774889783540894E-2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2.70749905537437E-2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.28541000045703901</v>
+      </c>
+      <c r="J19" s="2">
+        <v>7.4940343283325397E-2</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.14837814038274699</v>
+      </c>
+      <c r="L19" s="2">
+        <v>8.1222511659365795E-2</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.138587326003379</v>
+      </c>
+      <c r="N19" s="2">
+        <v>8.4621644648296607E-2</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.14008669420954101</v>
+      </c>
+      <c r="P19" s="2">
+        <v>7.7954942134082703E-2</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>7.6518142349061902E-2</v>
+      </c>
+      <c r="R19" s="2">
+        <v>3.45642696780908E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -5709,57 +5713,57 @@
         <v>0.2</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
-      <c r="E20">
-        <v>0.31429895381899298</v>
-      </c>
-      <c r="F20">
-        <v>0.3052844862229</v>
-      </c>
-      <c r="G20">
-        <v>0.25071872377877702</v>
-      </c>
-      <c r="H20">
-        <v>0.22061035589886999</v>
-      </c>
-      <c r="I20">
-        <v>0.41281229195961899</v>
-      </c>
-      <c r="J20">
-        <v>0.19070566821572499</v>
-      </c>
-      <c r="K20">
-        <v>0.19202272530243999</v>
-      </c>
-      <c r="L20">
-        <v>0.120658703275128</v>
-      </c>
-      <c r="M20">
-        <v>0.23998446227299</v>
-      </c>
-      <c r="N20">
-        <v>0.13717945410450899</v>
-      </c>
-      <c r="O20">
-        <v>0.14587882216863499</v>
-      </c>
-      <c r="P20">
-        <v>7.8865769273219005E-2</v>
-      </c>
-      <c r="Q20">
-        <v>0.279301192868665</v>
-      </c>
-      <c r="R20">
-        <v>0.24589633658593099</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="2">
+        <v>0.25859790968361401</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.23911802794981099</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.22394210087820299</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.16515191834257301</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.37609371819406801</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.163935253926311</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.31017464608019002</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.28047877772985103</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.33572574151045698</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.278651522094233</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.19984999674151699</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.12369689019094</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.24236617546445799</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0.215058359551489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B21">
         <v>0.2</v>
@@ -5770,55 +5774,55 @@
       <c r="D21" t="s">
         <v>1</v>
       </c>
-      <c r="E21">
-        <v>0.137160409147424</v>
-      </c>
-      <c r="F21">
-        <v>0.108404252901147</v>
-      </c>
-      <c r="G21">
-        <v>0.117180814601479</v>
-      </c>
-      <c r="H21">
-        <v>4.53893565083009E-2</v>
-      </c>
-      <c r="I21">
-        <v>0.33412128920971401</v>
-      </c>
-      <c r="J21">
-        <v>0.112332670220816</v>
-      </c>
-      <c r="K21">
-        <v>0.14410088531392501</v>
-      </c>
-      <c r="L21">
-        <v>5.1913356782848703E-2</v>
-      </c>
-      <c r="M21">
-        <v>0.135581631397201</v>
-      </c>
-      <c r="N21">
-        <v>5.1533810710089903E-2</v>
-      </c>
-      <c r="O21">
-        <v>0.181423673654206</v>
-      </c>
-      <c r="P21">
-        <v>0.143052371721163</v>
-      </c>
-      <c r="Q21">
-        <v>0.123853684669422</v>
-      </c>
-      <c r="R21">
-        <v>6.4486932443238804E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <v>0.31429895381899298</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.3052844862229</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.25071872377877702</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.22061035589886999</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.41281229195961899</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.19070566821572499</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.19202272530243999</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.120658703275128</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.23998446227299</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.13717945410450899</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.14587882216863499</v>
+      </c>
+      <c r="P21" s="2">
+        <v>7.8865769273219005E-2</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.279301192868665</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0.24589633658593099</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -5826,162 +5830,162 @@
       <c r="D22" t="s">
         <v>1</v>
       </c>
-      <c r="E22">
-        <v>0.304486313767874</v>
-      </c>
-      <c r="F22">
-        <v>0.28355422362135702</v>
-      </c>
-      <c r="G22">
-        <v>0.241106466747874</v>
-      </c>
-      <c r="H22">
-        <v>0.21259011497347099</v>
-      </c>
-      <c r="I22">
-        <v>0.34190164277864299</v>
-      </c>
-      <c r="J22">
-        <v>0.22889312160233399</v>
-      </c>
-      <c r="K22">
-        <v>8.9176889313481097E-2</v>
-      </c>
-      <c r="L22">
-        <v>1.2074676949563099E-2</v>
-      </c>
-      <c r="M22">
-        <v>0.17657477395556401</v>
-      </c>
-      <c r="N22">
-        <v>5.8112313250269998E-2</v>
-      </c>
-      <c r="O22">
-        <v>6.1213495954800898E-2</v>
-      </c>
-      <c r="P22">
-        <v>2.5079465221771902E-2</v>
-      </c>
-      <c r="Q22">
-        <v>0.26990245831201298</v>
-      </c>
-      <c r="R22">
-        <v>0.24183533854966399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="2">
+        <v>0.34347093527145101</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.33440052312273499</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.27413819970588499</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.246143445564181</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.42343236807001899</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.231818885967814</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.15879954390972201</v>
+      </c>
+      <c r="L22" s="2">
+        <v>8.1866508564175794E-2</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.21796589031615099</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.108098660908508</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.143782423891299</v>
+      </c>
+      <c r="P22" s="2">
+        <v>9.1433107816450004E-2</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0.29893782577992101</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.24992502306624401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
       </c>
-      <c r="E23">
-        <v>9.0628954745545803E-2</v>
-      </c>
-      <c r="F23">
-        <v>6.7997861282698899E-2</v>
-      </c>
-      <c r="G23">
-        <v>7.2774889783540894E-2</v>
-      </c>
-      <c r="H23">
-        <v>2.70749905537437E-2</v>
-      </c>
-      <c r="I23">
-        <v>0.28541000045703901</v>
-      </c>
-      <c r="J23">
-        <v>7.4940343283325397E-2</v>
-      </c>
-      <c r="K23">
-        <v>0.14837814038274699</v>
-      </c>
-      <c r="L23">
-        <v>8.1222511659365795E-2</v>
-      </c>
-      <c r="M23">
-        <v>0.138587326003379</v>
-      </c>
-      <c r="N23">
-        <v>8.4621644648296607E-2</v>
-      </c>
-      <c r="O23">
-        <v>0.14008669420954101</v>
-      </c>
-      <c r="P23">
-        <v>7.7954942134082703E-2</v>
-      </c>
-      <c r="Q23">
-        <v>7.6518142349061902E-2</v>
-      </c>
-      <c r="R23">
-        <v>3.45642696780908E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="2">
+        <v>0.13841507358189301</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.11706686160904101</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.118702234984286</v>
+      </c>
+      <c r="H23" s="2">
+        <v>6.3753974691059007E-2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.30605460180893301</v>
+      </c>
+      <c r="J23" s="2">
+        <v>7.7606295528404604E-2</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.13843205184976501</v>
+      </c>
+      <c r="L23" s="2">
+        <v>9.5246935954466094E-2</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.13298073855327999</v>
+      </c>
+      <c r="N23" s="2">
+        <v>8.9834418867844698E-2</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.138915894232778</v>
+      </c>
+      <c r="P23" s="2">
+        <v>6.1873295502550898E-2</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0.12278884775549199</v>
+      </c>
+      <c r="R23" s="2">
+        <v>7.9403975227007595E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B24">
         <v>0.2</v>
       </c>
       <c r="C24" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
       </c>
-      <c r="E24">
-        <v>0.34347093527145101</v>
-      </c>
-      <c r="F24">
-        <v>0.33440052312273499</v>
-      </c>
-      <c r="G24">
-        <v>0.27413819970588499</v>
-      </c>
-      <c r="H24">
-        <v>0.246143445564181</v>
-      </c>
-      <c r="I24">
-        <v>0.42343236807001899</v>
-      </c>
-      <c r="J24">
-        <v>0.231818885967814</v>
-      </c>
-      <c r="K24">
-        <v>0.15879954390972201</v>
-      </c>
-      <c r="L24">
-        <v>8.1866508564175794E-2</v>
-      </c>
-      <c r="M24">
-        <v>0.21796589031615099</v>
-      </c>
-      <c r="N24">
-        <v>0.108098660908508</v>
-      </c>
-      <c r="O24">
-        <v>0.143782423891299</v>
-      </c>
-      <c r="P24">
-        <v>9.1433107816450004E-2</v>
-      </c>
-      <c r="Q24">
-        <v>0.29893782577992101</v>
-      </c>
-      <c r="R24">
-        <v>0.24992502306624401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="2">
+        <v>0.137160409147424</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.108404252901147</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.117180814601479</v>
+      </c>
+      <c r="H24" s="2">
+        <v>4.53893565083009E-2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.33412128920971401</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.112332670220816</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.14410088531392501</v>
+      </c>
+      <c r="L24" s="2">
+        <v>5.1913356782848703E-2</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.135581631397201</v>
+      </c>
+      <c r="N24" s="2">
+        <v>5.1533810710089903E-2</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.181423673654206</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.143052371721163</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.123853684669422</v>
+      </c>
+      <c r="R24" s="2">
+        <v>6.4486932443238804E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.5</v>
       </c>
@@ -5994,46 +5998,46 @@
       <c r="D25" t="s">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>0.13385361668902299</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>0.108995373115594</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>0.11490901332862</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <v>4.56158260885898E-2</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <v>0.33124544603181699</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="2">
         <v>0.11672364810017199</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="2">
         <v>0.15236985444589601</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="2">
         <v>5.7140906019338203E-2</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="2">
         <v>0.139245932118743</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="2">
         <v>5.9663923407459601E-2</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="2">
         <v>0.192944133042072</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="2">
         <v>0.19298841268813799</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="2">
         <v>0.11796794575240099</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="2">
         <v>6.35376312768135E-2</v>
       </c>
     </row>
@@ -6711,16 +6715,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:R37">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="none"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="med"/>
       </filters>
     </filterColumn>
+    <sortState ref="A14:R25">
+      <sortCondition ref="B1:B37"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6731,8 +6733,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6851,34 +6853,34 @@
     </row>
     <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>0.96599999999999997</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="F3">
-        <v>0.96</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="G3">
-        <v>0.94884653961885701</v>
+        <v>0.944834503510532</v>
       </c>
       <c r="H3">
-        <v>0.90442655935613703</v>
+        <v>0.91091091091091103</v>
       </c>
       <c r="I3">
-        <v>0.96099999999999997</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="J3">
-        <v>0.93400000000000005</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
@@ -6887,22 +6889,22 @@
         <v>21</v>
       </c>
       <c r="M3">
-        <v>0.96270161290322598</v>
+        <v>0.96551724137931005</v>
       </c>
       <c r="N3">
-        <v>0.96099999999999997</v>
+        <v>0.98484848484848497</v>
       </c>
       <c r="O3">
-        <v>0.94259818731117795</v>
+        <v>0.92156862745098</v>
       </c>
       <c r="P3">
-        <v>0.96799999999999997</v>
+        <v>0.89089089089089102</v>
       </c>
       <c r="Q3">
         <v>0.95199999999999996</v>
       </c>
       <c r="R3">
-        <v>0.95399999999999996</v>
+        <v>0.93500000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -6910,31 +6912,31 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>0.91800000000000004</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="F4">
-        <v>0.94799999999999995</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="G4">
-        <v>0.89679358717434898</v>
+        <v>0.93587174348697399</v>
       </c>
       <c r="H4">
-        <v>0.86786786786786796</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="I4">
-        <v>0.92700000000000005</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="J4">
-        <v>0.88300000000000001</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -6943,22 +6945,22 @@
         <v>21</v>
       </c>
       <c r="M4">
-        <v>0.75</v>
+        <v>0.99665551839464905</v>
       </c>
       <c r="N4">
-        <v>0.66244239631336399</v>
+        <v>0.99481865284974103</v>
       </c>
       <c r="O4">
-        <v>0.93448275862068997</v>
+        <v>0.91666666666666696</v>
       </c>
       <c r="P4">
-        <v>0.96478873239436602</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="Q4">
-        <v>0.93400000000000005</v>
+        <v>0.96</v>
       </c>
       <c r="R4">
-        <v>0.91800000000000004</v>
+        <v>0.86399999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -6966,7 +6968,7 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -6975,22 +6977,22 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>0.92500000000000004</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="F5">
-        <v>0.94499999999999995</v>
+        <v>0.96</v>
       </c>
       <c r="G5">
-        <v>0.89648241206030199</v>
+        <v>0.94884653961885701</v>
       </c>
       <c r="H5">
-        <v>0.82082082082082097</v>
+        <v>0.90442655935613703</v>
       </c>
       <c r="I5">
-        <v>0.91700000000000004</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="J5">
-        <v>0.86299999999999999</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
@@ -6999,27 +7001,27 @@
         <v>21</v>
       </c>
       <c r="M5">
-        <v>0.87096774193548399</v>
+        <v>0.96270161290322598</v>
       </c>
       <c r="N5">
-        <v>0.65</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="O5">
-        <v>0.906532663316583</v>
+        <v>0.94259818731117795</v>
       </c>
       <c r="P5">
-        <v>0.93600000000000005</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="Q5">
-        <v>0.93300000000000005</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="R5">
-        <v>0.93100000000000005</v>
+        <v>0.95399999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7031,22 +7033,22 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>0.94899999999999995</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="F6">
-        <v>0.90100000000000002</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="G6">
-        <v>0.944834503510532</v>
+        <v>0.94242424242424205</v>
       </c>
       <c r="H6">
-        <v>0.91091091091091103</v>
+        <v>0.928131416837782</v>
       </c>
       <c r="I6">
-        <v>0.93100000000000005</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="J6">
-        <v>0.88900000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -7055,19 +7057,19 @@
         <v>21</v>
       </c>
       <c r="M6">
-        <v>0.96551724137931005</v>
+        <v>0.92097264437689996</v>
       </c>
       <c r="N6">
-        <v>0.98484848484848497</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="O6">
-        <v>0.92156862745098</v>
+        <v>0.91603053435114501</v>
       </c>
       <c r="P6">
-        <v>0.89089089089089102</v>
+        <v>0.92284569138276595</v>
       </c>
       <c r="Q6">
-        <v>0.95199999999999996</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="R6">
         <v>0.93500000000000005</v>
@@ -7081,28 +7083,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>0.92400000000000004</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="F7">
-        <v>0.66600000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="G7">
-        <v>0.94242424242424205</v>
+        <v>0.94827586206896597</v>
       </c>
       <c r="H7">
-        <v>0.928131416837782</v>
+        <v>0.93167701863354002</v>
       </c>
       <c r="I7">
-        <v>0.86299999999999999</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="J7">
-        <v>0.77</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -7111,22 +7113,22 @@
         <v>21</v>
       </c>
       <c r="M7">
-        <v>0.92097264437689996</v>
+        <v>0.90621814475025497</v>
       </c>
       <c r="N7">
-        <v>0.78700000000000003</v>
+        <v>0.626</v>
       </c>
       <c r="O7">
-        <v>0.91603053435114501</v>
+        <v>0.89837398373983701</v>
       </c>
       <c r="P7">
-        <v>0.92284569138276595</v>
+        <v>0.88934010152284304</v>
       </c>
       <c r="Q7">
-        <v>0.93500000000000005</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="R7">
-        <v>0.93500000000000005</v>
+        <v>0.90500000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -7137,28 +7139,28 @@
         <v>0.2</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>0.91</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="F8">
-        <v>0.90800000000000003</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="G8">
-        <v>0.91691691691691701</v>
+        <v>0.89679358717434898</v>
       </c>
       <c r="H8">
-        <v>0.91900000000000004</v>
+        <v>0.86786786786786796</v>
       </c>
       <c r="I8">
-        <v>0.88700000000000001</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="J8">
-        <v>0.77900000000000003</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="K8" t="s">
         <v>21</v>
@@ -7167,27 +7169,27 @@
         <v>21</v>
       </c>
       <c r="M8">
-        <v>0.864150943396226</v>
+        <v>0.75</v>
       </c>
       <c r="N8">
-        <v>0.855590062111801</v>
+        <v>0.66244239631336399</v>
       </c>
       <c r="O8">
-        <v>0.83427282976324701</v>
+        <v>0.93448275862068997</v>
       </c>
       <c r="P8">
-        <v>0.55600000000000005</v>
+        <v>0.96478873239436602</v>
       </c>
       <c r="Q8">
-        <v>0.93700000000000006</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="R8">
-        <v>0.94099999999999995</v>
+        <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0.2</v>
@@ -7199,22 +7201,22 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>0.91500000000000004</v>
+        <v>0.91</v>
       </c>
       <c r="F9">
-        <v>0.81699999999999995</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="G9">
-        <v>0.89637826961770595</v>
+        <v>0.91691691691691701</v>
       </c>
       <c r="H9">
-        <v>0.71457696228338397</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="I9">
-        <v>0.82399999999999995</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="J9">
-        <v>0.65800000000000003</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
@@ -7223,22 +7225,22 @@
         <v>21</v>
       </c>
       <c r="M9">
-        <v>0.92893401015228405</v>
+        <v>0.864150943396226</v>
       </c>
       <c r="N9">
-        <v>0.91700000000000004</v>
+        <v>0.855590062111801</v>
       </c>
       <c r="O9">
-        <v>0.89640130861504896</v>
+        <v>0.83427282976324701</v>
       </c>
       <c r="P9">
-        <v>0.67900000000000005</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="Q9">
-        <v>0.94399999999999995</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="R9">
-        <v>0.92900000000000005</v>
+        <v>0.94099999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -7246,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -7255,22 +7257,22 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>0.92700000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="F10">
-        <v>0.78100000000000003</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="G10">
-        <v>0.93587174348697399</v>
+        <v>0.91491491491491495</v>
       </c>
       <c r="H10">
-        <v>0.86599999999999999</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="I10">
-        <v>0.89200000000000002</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="J10">
-        <v>0.59799999999999998</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="K10" t="s">
         <v>21</v>
@@ -7279,22 +7281,22 @@
         <v>21</v>
       </c>
       <c r="M10">
-        <v>0.99665551839464905</v>
+        <v>0.91468253968253999</v>
       </c>
       <c r="N10">
-        <v>0.99481865284974103</v>
+        <v>0.907547169811321</v>
       </c>
       <c r="O10">
-        <v>0.91666666666666696</v>
+        <v>0.743670886075949</v>
       </c>
       <c r="P10">
-        <v>0.70899999999999996</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="Q10">
-        <v>0.96</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="R10">
-        <v>0.86399999999999999</v>
+        <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -7302,31 +7304,31 @@
         <v>0.5</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>0.90200000000000002</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="F11">
-        <v>0.499</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="G11">
-        <v>0.94827586206896597</v>
+        <v>0.89648241206030199</v>
       </c>
       <c r="H11">
-        <v>0.93167701863354002</v>
+        <v>0.82082082082082097</v>
       </c>
       <c r="I11">
-        <v>0.80700000000000005</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="J11">
-        <v>0.57099999999999995</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="K11" t="s">
         <v>21</v>
@@ -7335,54 +7337,54 @@
         <v>21</v>
       </c>
       <c r="M11">
-        <v>0.90621814475025497</v>
+        <v>0.87096774193548399</v>
       </c>
       <c r="N11">
-        <v>0.626</v>
+        <v>0.65</v>
       </c>
       <c r="O11">
-        <v>0.89837398373983701</v>
+        <v>0.906532663316583</v>
       </c>
       <c r="P11">
-        <v>0.88934010152284304</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="Q11">
-        <v>0.92700000000000005</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="R11">
-        <v>0.90500000000000003</v>
+        <v>0.93100000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B12">
         <v>0.2</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>0.9</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="F12">
-        <v>0.81499999999999995</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="G12">
-        <v>0.91491491491491495</v>
+        <v>0.89637826961770595</v>
       </c>
       <c r="H12">
-        <v>0.94699999999999995</v>
+        <v>0.71457696228338397</v>
       </c>
       <c r="I12">
-        <v>0.86899999999999999</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="J12">
-        <v>0.55400000000000005</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
@@ -7391,22 +7393,22 @@
         <v>21</v>
       </c>
       <c r="M12">
-        <v>0.91468253968253999</v>
+        <v>0.92893401015228405</v>
       </c>
       <c r="N12">
-        <v>0.907547169811321</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="O12">
-        <v>0.743670886075949</v>
+        <v>0.89640130861504896</v>
       </c>
       <c r="P12">
-        <v>0.20200000000000001</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="Q12">
-        <v>0.94699999999999995</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="R12">
-        <v>0.91800000000000004</v>
+        <v>0.92900000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -7478,103 +7480,103 @@
       <c r="D14" t="s">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>0.441</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
         <v>0.558350100603622</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>0.20473251028806599</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>0.91800000000000004</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <v>0.92500000000000004</v>
       </c>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14">
+      <c r="K14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="2">
         <v>0.94510739856801895</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="2">
         <v>0.94929006085192702</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="2">
         <v>0.77582159624413105</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="2">
         <v>0.214</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="2">
         <v>0.52</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
-      <c r="E15">
-        <v>0.89</v>
-      </c>
-      <c r="F15">
-        <v>0.43</v>
-      </c>
-      <c r="G15">
-        <v>0.91691995947315097</v>
-      </c>
-      <c r="H15">
-        <v>0.88278008298755195</v>
-      </c>
-      <c r="I15">
+      <c r="E15" s="2">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.309619238476954</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1.00200400801603E-3</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.98106060606060597</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="P15" s="2">
         <v>0.875</v>
       </c>
-      <c r="J15">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="K15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15">
-        <v>0.94594594594594605</v>
-      </c>
-      <c r="N15">
-        <v>0.95</v>
-      </c>
-      <c r="O15">
-        <v>0.92531120331950201</v>
-      </c>
-      <c r="P15">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="Q15">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="R15">
-        <v>0.85799999999999998</v>
+      <c r="Q15" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R15" s="2">
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -7582,55 +7584,55 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
       </c>
-      <c r="E16">
-        <v>0.375</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0.48542713567839202</v>
-      </c>
-      <c r="H16">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="J16">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="K16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16">
-        <v>0.72574850299401195</v>
-      </c>
-      <c r="N16">
-        <v>0.237713139418255</v>
-      </c>
-      <c r="O16">
-        <v>0.74472361809045196</v>
-      </c>
-      <c r="P16">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="Q16">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="R16">
-        <v>0.111</v>
+      <c r="E16" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.227683049147442</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.99166666666666703</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.97067745197168898</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.192</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -7638,7 +7640,7 @@
         <v>0.5</v>
       </c>
       <c r="B17">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -7646,52 +7648,52 @@
       <c r="D17" t="s">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="F17">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="G17">
-        <v>0.79011099899091797</v>
-      </c>
-      <c r="H17">
-        <v>0.68577728776185198</v>
-      </c>
-      <c r="I17">
-        <v>0.87</v>
-      </c>
-      <c r="J17">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="K17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17">
-        <v>0.86286286286286296</v>
-      </c>
-      <c r="N17">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="O17">
-        <v>0.88949522510231904</v>
-      </c>
-      <c r="P17">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="Q17">
-        <v>0.86</v>
-      </c>
-      <c r="R17">
-        <v>0.57099999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.91691995947315097</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.88278008298755195</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.94594594594594605</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.92531120331950201</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0.85799999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -7702,50 +7704,50 @@
       <c r="D18" t="s">
         <v>1</v>
       </c>
-      <c r="E18">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0.309619238476954</v>
-      </c>
-      <c r="H18">
-        <v>1.00200400801603E-3</v>
-      </c>
-      <c r="I18">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="J18">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18">
-        <v>0.98106060606060597</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
+      <c r="E18" s="2">
+        <v>0.879</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.92016376663254895</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.910064239828694</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.917933130699088</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.746</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.93604651162790697</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.93378226711559997</v>
+      </c>
+      <c r="Q18" s="2">
         <v>0.93500000000000005</v>
       </c>
-      <c r="P18">
-        <v>0.875</v>
-      </c>
-      <c r="Q18">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="R18">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="2">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.5</v>
       </c>
@@ -7753,55 +7755,55 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
       </c>
-      <c r="E19">
-        <v>0.879</v>
-      </c>
-      <c r="F19">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="G19">
-        <v>0.92016376663254895</v>
-      </c>
-      <c r="H19">
-        <v>0.910064239828694</v>
-      </c>
-      <c r="I19">
-        <v>0.79</v>
-      </c>
-      <c r="J19">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="K19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19">
-        <v>0.917933130699088</v>
-      </c>
-      <c r="N19">
-        <v>0.746</v>
-      </c>
-      <c r="O19">
-        <v>0.93604651162790697</v>
-      </c>
-      <c r="P19">
-        <v>0.93378226711559997</v>
-      </c>
-      <c r="Q19">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="R19">
-        <v>0.86699999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.92805755395683498</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.918432203389831</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.505</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.920282542885974</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.91925465838509302</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.91472868217054304</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0.86199999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -7809,57 +7811,57 @@
         <v>0.2</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
-      <c r="E20">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0.40201005025125602</v>
-      </c>
-      <c r="H20">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I20">
-        <v>0.871</v>
-      </c>
-      <c r="J20">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="K20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20">
-        <v>0.91185897435897401</v>
-      </c>
-      <c r="N20">
-        <v>0.81176470588235305</v>
-      </c>
-      <c r="O20">
-        <v>0.84879032258064502</v>
-      </c>
-      <c r="P20">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="Q20">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="R20">
-        <v>0.19600000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.48542713567839202</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.72574850299401195</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.237713139418255</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.74472361809045196</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B21">
         <v>0.2</v>
@@ -7870,55 +7872,55 @@
       <c r="D21" t="s">
         <v>1</v>
       </c>
-      <c r="E21">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="F21">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="G21">
-        <v>0.779471544715447</v>
-      </c>
-      <c r="H21">
-        <v>0.86357947434292903</v>
-      </c>
-      <c r="I21">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="J21">
-        <v>0.76</v>
-      </c>
-      <c r="K21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21">
-        <v>0.92361809045226095</v>
-      </c>
-      <c r="N21">
-        <v>0.91400000000000003</v>
-      </c>
-      <c r="O21">
-        <v>0.93069306930693096</v>
-      </c>
-      <c r="P21">
-        <v>0.97606659729448497</v>
-      </c>
-      <c r="Q21">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="R21">
-        <v>0.72099999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.40201005025125602</v>
+      </c>
+      <c r="H21" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.871</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.91185897435897401</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.81176470588235305</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.84879032258064502</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -7926,162 +7928,162 @@
       <c r="D22" t="s">
         <v>1</v>
       </c>
-      <c r="E22">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0.227683049147442</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="J22">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="K22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22">
-        <v>0.99166666666666703</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0.97067745197168898</v>
-      </c>
-      <c r="P22">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="Q22">
-        <v>0.192</v>
-      </c>
-      <c r="R22">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="2">
+        <v>0.156</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.33366935483871002</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.92351816443594603</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.90328151986183103</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.82914046121593299</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0.377</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
       </c>
-      <c r="E23">
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="F23">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="G23">
-        <v>0.92805755395683498</v>
-      </c>
-      <c r="H23">
-        <v>0.918432203389831</v>
-      </c>
-      <c r="I23">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="J23">
-        <v>0.505</v>
-      </c>
-      <c r="K23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23">
-        <v>0.920282542885974</v>
-      </c>
-      <c r="N23">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="O23">
-        <v>0.91925465838509302</v>
-      </c>
-      <c r="P23">
-        <v>0.91472868217054304</v>
-      </c>
-      <c r="Q23">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="R23">
-        <v>0.86199999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="2">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.79011099899091797</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.68577728776185198</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.86286286286286296</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.88949522510231904</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B24">
         <v>0.2</v>
       </c>
       <c r="C24" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
       </c>
-      <c r="E24">
-        <v>0.156</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0.33366935483871002</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0.85</v>
-      </c>
-      <c r="J24">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="K24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24">
-        <v>0.92351816443594603</v>
-      </c>
-      <c r="N24">
-        <v>0.90328151986183103</v>
-      </c>
-      <c r="O24">
-        <v>0.82914046121593299</v>
-      </c>
-      <c r="P24">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="Q24">
-        <v>0.377</v>
-      </c>
-      <c r="R24">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="2">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="F24" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.779471544715447</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.86357947434292903</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.92361809045226095</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.93069306930693096</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.97606659729448497</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.5</v>
       </c>
@@ -8094,46 +8096,46 @@
       <c r="D25" t="s">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>0.70399999999999996</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>6.3E-2</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>0.79627714581178899</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <v>0.83787289234760098</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <v>0.77200000000000002</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="2">
         <v>0.74399999999999999</v>
       </c>
-      <c r="K25" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25">
+      <c r="K25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="2">
         <v>0.92907801418439695</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="2">
         <v>0.89400000000000002</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="2">
         <v>0.92366412213740501</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="2">
         <v>0.96469104665826</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="2">
         <v>0.89400000000000002</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="2">
         <v>0.73399999999999999</v>
       </c>
     </row>
@@ -8811,16 +8813,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:R37">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="none"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="med"/>
       </filters>
     </filterColumn>
+    <sortState ref="A14:R25">
+      <sortCondition ref="B1:B37"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/mastertable.xlsx
+++ b/tables/mastertable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="pow_table" sheetId="6" r:id="rId1"/>
@@ -438,8 +438,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32:P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,7 +1172,7 @@
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.5</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.5</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.5</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.5</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.5</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1900,15 +1900,15 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
@@ -1920,16 +1920,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0.97148676171079396</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0.52700000000000002</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="J27">
-        <v>0.998</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="K27" t="s">
         <v>21</v>
@@ -1944,48 +1944,48 @@
         <v>21</v>
       </c>
       <c r="O27">
-        <v>0.94225721784776895</v>
+        <v>5.8020477815699703E-2</v>
       </c>
       <c r="P27">
-        <v>0.99688149688149696</v>
+        <v>0.115</v>
       </c>
       <c r="Q27">
-        <v>0.96199999999999997</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="R27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
       <c r="B28">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.94599999999999995</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.81039755351681997</v>
+        <v>0.98858921161825697</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0.20399999999999999</v>
+        <v>0.127</v>
       </c>
       <c r="J28">
-        <v>0.36799999999999999</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="K28" t="s">
         <v>21</v>
@@ -2000,21 +2000,21 @@
         <v>21</v>
       </c>
       <c r="O28">
-        <v>0.42116402116402102</v>
+        <v>2.95774647887324E-2</v>
       </c>
       <c r="P28">
-        <v>0.52300000000000002</v>
+        <v>0.112112112112112</v>
       </c>
       <c r="Q28">
-        <v>0.64100000000000001</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="R28">
-        <v>0.73899999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.73399999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B29">
         <v>0.2</v>
@@ -2026,22 +2026,22 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0.81039755351681997</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>0.42599999999999999</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="J29">
-        <v>0.97399999999999998</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="K29" t="s">
         <v>21</v>
@@ -2056,24 +2056,24 @@
         <v>21</v>
       </c>
       <c r="O29">
-        <v>0.89572192513368998</v>
+        <v>0.42116402116402102</v>
       </c>
       <c r="P29">
-        <v>0.98740818467995795</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="Q29">
-        <v>0.95699999999999996</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="R29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.73899999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -2082,22 +2082,22 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.97148676171079396</v>
+        <v>0.88381742738589197</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>0.11899999999999999</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="J30">
-        <v>0.32600000000000001</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="K30" t="s">
         <v>21</v>
@@ -2112,104 +2112,104 @@
         <v>21</v>
       </c>
       <c r="O30">
-        <v>5.8020477815699703E-2</v>
+        <v>0.12407680945347099</v>
       </c>
       <c r="P30">
-        <v>0.115</v>
+        <v>0.119119119119119</v>
       </c>
       <c r="Q30">
-        <v>0.94299999999999995</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="R30">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0.2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0.99</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.92394655704008199</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0.159</v>
+      </c>
+      <c r="J31">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="K31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31">
+        <v>5.6818181818181802E-2</v>
+      </c>
+      <c r="P31">
+        <v>0.13636363636363599</v>
+      </c>
+      <c r="Q31">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="R31">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>0.5</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="J31">
-        <v>0.999</v>
-      </c>
-      <c r="K31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" t="s">
-        <v>21</v>
-      </c>
-      <c r="O31">
-        <v>0.82882882882882902</v>
-      </c>
-      <c r="P31">
-        <v>0.97264957264957297</v>
-      </c>
-      <c r="Q31">
-        <v>0.93</v>
-      </c>
-      <c r="R31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>0</v>
-      </c>
       <c r="B32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.98499999999999999</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.88381742738589197</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0.16900000000000001</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="J32">
-        <v>0.23100000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="K32" t="s">
         <v>21</v>
@@ -2224,24 +2224,24 @@
         <v>21</v>
       </c>
       <c r="O32">
-        <v>0.12407680945347099</v>
+        <v>0.94225721784776895</v>
       </c>
       <c r="P32">
-        <v>0.119119119119119</v>
+        <v>0.99688149688149696</v>
       </c>
       <c r="Q32">
-        <v>0.70899999999999996</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="R32">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.5</v>
       </c>
       <c r="B33">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -2262,10 +2262,10 @@
         <v>1</v>
       </c>
       <c r="I33">
-        <v>0.41099999999999998</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="J33">
-        <v>0.95899999999999996</v>
+        <v>0.999</v>
       </c>
       <c r="K33" t="s">
         <v>21</v>
@@ -2280,21 +2280,21 @@
         <v>21</v>
       </c>
       <c r="O33">
-        <v>0.72222222222222199</v>
+        <v>0.82882882882882902</v>
       </c>
       <c r="P33">
-        <v>0.77403846153846201</v>
+        <v>0.97264957264957297</v>
       </c>
       <c r="Q33">
-        <v>0.93100000000000005</v>
+        <v>0.93</v>
       </c>
       <c r="R33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2312,16 +2312,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.98858921161825697</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>0.127</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="J34">
-        <v>0.45200000000000001</v>
+        <v>0.997</v>
       </c>
       <c r="K34" t="s">
         <v>21</v>
@@ -2336,27 +2336,27 @@
         <v>21</v>
       </c>
       <c r="O34">
-        <v>2.95774647887324E-2</v>
+        <v>0.72307692307692295</v>
       </c>
       <c r="P34">
-        <v>0.112112112112112</v>
+        <v>0.95049504950495001</v>
       </c>
       <c r="Q34">
-        <v>0.94199999999999995</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="R34">
-        <v>0.73399999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.5</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C35" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>1</v>
       </c>
       <c r="I35">
-        <v>0.53800000000000003</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="J35">
-        <v>0.997</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="K35" t="s">
         <v>21</v>
@@ -2392,48 +2392,48 @@
         <v>21</v>
       </c>
       <c r="O35">
-        <v>0.72307692307692295</v>
+        <v>0.89572192513368998</v>
       </c>
       <c r="P35">
-        <v>0.95049504950495001</v>
+        <v>0.98740818467995795</v>
       </c>
       <c r="Q35">
-        <v>0.90900000000000003</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="R35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B36">
         <v>0.2</v>
       </c>
       <c r="C36" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.92394655704008199</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>0.159</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="J36">
-        <v>0.23400000000000001</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="K36" t="s">
         <v>21</v>
@@ -2448,19 +2448,19 @@
         <v>21</v>
       </c>
       <c r="O36">
-        <v>5.6818181818181802E-2</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="P36">
-        <v>0.13636363636363599</v>
+        <v>0.77403846153846201</v>
       </c>
       <c r="Q36">
-        <v>0.70099999999999996</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="R36">
-        <v>0.71399999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.5</v>
       </c>
@@ -2520,11 +2520,11 @@
   <autoFilter ref="A1:R37">
     <filterColumn colId="3">
       <filters>
-        <filter val="med"/>
+        <filter val="high"/>
       </filters>
     </filterColumn>
-    <sortState ref="A14:R25">
-      <sortCondition ref="B1:B37"/>
+    <sortState ref="A26:R37">
+      <sortCondition ref="A1:A37"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2533,11 +2533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14:R16"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29:R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2598,7 +2597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2654,7 +2653,7 @@
         <v>-2.6247149302211599E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2710,7 +2709,7 @@
         <v>1.5730301012316299E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2766,7 +2765,7 @@
         <v>2.4668847003642101E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.5</v>
       </c>
@@ -2822,7 +2821,7 @@
         <v>-3.3921038283148699E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -2878,7 +2877,7 @@
         <v>5.9057063107764499E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -2934,7 +2933,7 @@
         <v>6.6888463294340001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2990,7 +2989,7 @@
         <v>2.0179915770247598E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3046,7 +3045,7 @@
         <v>9.7290222042860797E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3102,7 +3101,7 @@
         <v>1.7658931018360701E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.5</v>
       </c>
@@ -3158,7 +3157,7 @@
         <v>-1.6958003373259301E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.5</v>
       </c>
@@ -3214,7 +3213,7 @@
         <v>-2.5635488220210501E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.5</v>
       </c>
@@ -3942,7 +3941,7 @@
         <v>3.93388086566544E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -3998,121 +3997,121 @@
         <v>0.24900819764410501</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>7.2327901603395903E-2</v>
+        <v>0.38110109817985099</v>
       </c>
       <c r="F27">
-        <v>6.2540204804639205E-2</v>
+        <v>0.36876735041951803</v>
       </c>
       <c r="G27">
-        <v>3.45237532918879E-2</v>
+        <v>0.31619398174309399</v>
       </c>
       <c r="H27">
-        <v>9.8354995492400694E-3</v>
+        <v>0.30357314141994801</v>
       </c>
       <c r="I27">
-        <v>-0.16090890977428601</v>
+        <v>-0.10022221479340999</v>
       </c>
       <c r="J27">
-        <v>-5.2070461542399298E-2</v>
+        <v>-8.4463626177271101E-2</v>
       </c>
       <c r="K27">
-        <v>-5.8090563603023504E-3</v>
+        <v>2.6693479276690898E-2</v>
       </c>
       <c r="L27">
-        <v>-1.6342926942888799E-3</v>
+        <v>1.4193809934437401E-3</v>
       </c>
       <c r="M27">
-        <v>-8.8271878362391996E-3</v>
+        <v>0.117466821844983</v>
       </c>
       <c r="N27">
-        <v>-5.0252144188589901E-3</v>
+        <v>4.5650754744611798E-2</v>
       </c>
       <c r="O27">
-        <v>-6.3656064581461202E-3</v>
+        <v>6.5591113419807903E-2</v>
       </c>
       <c r="P27">
-        <v>-7.3539454455828698E-3</v>
+        <v>4.8657492382922697E-2</v>
       </c>
       <c r="Q27">
-        <v>2.94466232041007E-2</v>
+        <v>0.35395244150796601</v>
       </c>
       <c r="R27">
-        <v>2.1978122218089601E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.22061049209722999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
       <c r="B28">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.38606355877095899</v>
+        <v>0.40674837802394898</v>
       </c>
       <c r="F28">
-        <v>0.38968633418598603</v>
+        <v>0.39264510260292101</v>
       </c>
       <c r="G28">
-        <v>0.32053897239578999</v>
+        <v>0.34132538858477801</v>
       </c>
       <c r="H28">
-        <v>0.30157411321282102</v>
+        <v>0.324473156893754</v>
       </c>
       <c r="I28">
-        <v>6.7185879930762804E-2</v>
+        <v>-0.101174962269748</v>
       </c>
       <c r="J28">
-        <v>0.116219804850691</v>
+        <v>-8.9770109921996605E-2</v>
       </c>
       <c r="K28">
-        <v>0.25453721439188398</v>
+        <v>2.3336439450052E-2</v>
       </c>
       <c r="L28">
-        <v>0.26815162506760298</v>
+        <v>6.7646404324579095E-4</v>
       </c>
       <c r="M28">
-        <v>0.27808527670556399</v>
+        <v>0.122217159526473</v>
       </c>
       <c r="N28">
-        <v>0.26763064028926098</v>
+        <v>5.7214744458342702E-2</v>
       </c>
       <c r="O28">
-        <v>0.1584234178459</v>
+        <v>5.8811056025830102E-2</v>
       </c>
       <c r="P28">
-        <v>0.13030703340417901</v>
+        <v>6.2870829543728801E-2</v>
       </c>
       <c r="Q28">
-        <v>0.33387746120762801</v>
+        <v>0.37763293389554098</v>
       </c>
       <c r="R28">
-        <v>0.25241472564837403</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.22175060130858701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B29">
         <v>0.2</v>
@@ -4124,54 +4123,54 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0.13669432419510499</v>
+        <v>0.38606355877095899</v>
       </c>
       <c r="F29">
-        <v>0.133556422960978</v>
+        <v>0.38968633418598603</v>
       </c>
       <c r="G29">
-        <v>8.8034132684122093E-2</v>
+        <v>0.32053897239578999</v>
       </c>
       <c r="H29">
-        <v>4.76508951287926E-2</v>
+        <v>0.30157411321282102</v>
       </c>
       <c r="I29">
-        <v>-0.153740183381916</v>
+        <v>6.7185879930762804E-2</v>
       </c>
       <c r="J29">
-        <v>-1.74943103340085E-2</v>
+        <v>0.116219804850691</v>
       </c>
       <c r="K29">
-        <v>7.3984191122947504E-2</v>
+        <v>0.25453721439188398</v>
       </c>
       <c r="L29">
-        <v>8.2185218147474801E-2</v>
+        <v>0.26815162506760298</v>
       </c>
       <c r="M29">
-        <v>7.1212371225103793E-2</v>
+        <v>0.27808527670556399</v>
       </c>
       <c r="N29">
-        <v>7.6545987057850803E-2</v>
+        <v>0.26763064028926098</v>
       </c>
       <c r="O29">
-        <v>3.4300796276771697E-2</v>
+        <v>0.1584234178459</v>
       </c>
       <c r="P29">
-        <v>1.5125065550481801E-2</v>
+        <v>0.13030703340417901</v>
       </c>
       <c r="Q29">
-        <v>8.0583988135130805E-2</v>
+        <v>0.33387746120762801</v>
       </c>
       <c r="R29">
-        <v>7.7359228864058105E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.25241472564837403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -4180,166 +4179,166 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.38110109817985099</v>
+        <v>0.41359250877494302</v>
       </c>
       <c r="F30">
-        <v>0.36876735041951803</v>
+        <v>0.41088790435258998</v>
       </c>
       <c r="G30">
-        <v>0.31619398174309399</v>
+        <v>0.34211793931465301</v>
       </c>
       <c r="H30">
-        <v>0.30357314141994801</v>
+        <v>0.32522776405655301</v>
       </c>
       <c r="I30">
-        <v>-0.10022221479340999</v>
+        <v>-1.0002772580623299E-2</v>
       </c>
       <c r="J30">
-        <v>-8.4463626177271101E-2</v>
+        <v>1.3024551528731E-2</v>
       </c>
       <c r="K30">
-        <v>2.6693479276690898E-2</v>
+        <v>0.121593045999389</v>
       </c>
       <c r="L30">
-        <v>1.4193809934437401E-3</v>
+        <v>9.0791207540051599E-2</v>
       </c>
       <c r="M30">
-        <v>0.117466821844983</v>
+        <v>0.18736983988974901</v>
       </c>
       <c r="N30">
-        <v>4.5650754744611798E-2</v>
+        <v>0.11350386914011899</v>
       </c>
       <c r="O30">
-        <v>6.5591113419807903E-2</v>
+        <v>6.3736202157348001E-2</v>
       </c>
       <c r="P30">
-        <v>4.8657492382922697E-2</v>
+        <v>3.1879913937056997E-2</v>
       </c>
       <c r="Q30">
-        <v>0.35395244150796601</v>
+        <v>0.35748540626689401</v>
       </c>
       <c r="R30">
-        <v>0.22061049209722999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.245242867866654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0.2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0.42524918622058799</v>
+      </c>
+      <c r="F31">
+        <v>0.42003666060161199</v>
+      </c>
+      <c r="G31">
+        <v>0.35425757480871101</v>
+      </c>
+      <c r="H31">
+        <v>0.33314751577169399</v>
+      </c>
+      <c r="I31">
+        <v>-3.9451326042871201E-2</v>
+      </c>
+      <c r="J31">
+        <v>-2.4805310862793001E-2</v>
+      </c>
+      <c r="K31">
+        <v>8.8992982801883294E-2</v>
+      </c>
+      <c r="L31">
+        <v>5.0310883541125402E-2</v>
+      </c>
+      <c r="M31">
+        <v>0.173348026120906</v>
+      </c>
+      <c r="N31">
+        <v>8.6832566524164795E-2</v>
+      </c>
+      <c r="O31">
+        <v>2.22095365532517E-2</v>
+      </c>
+      <c r="P31">
+        <v>3.8506265655108597E-2</v>
+      </c>
+      <c r="Q31">
+        <v>0.36375473227316302</v>
+      </c>
+      <c r="R31">
+        <v>0.241231551750235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>0.5</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>7.4715530266486502E-2</v>
-      </c>
-      <c r="F31">
-        <v>6.5349363699750307E-2</v>
-      </c>
-      <c r="G31">
-        <v>3.3294454087978799E-2</v>
-      </c>
-      <c r="H31">
-        <v>9.8342467429351592E-3</v>
-      </c>
-      <c r="I31">
-        <v>-0.17585108565133201</v>
-      </c>
-      <c r="J31">
-        <v>-5.8016905404943399E-2</v>
-      </c>
-      <c r="K31">
-        <v>-6.6195760861759406E-2</v>
-      </c>
-      <c r="L31">
-        <v>-4.9620274821055799E-2</v>
-      </c>
-      <c r="M31">
-        <v>-6.7308511921754896E-2</v>
-      </c>
-      <c r="N31">
-        <v>-5.3466620786926398E-2</v>
-      </c>
-      <c r="O31">
-        <v>-5.32256130875376E-2</v>
-      </c>
-      <c r="P31">
-        <v>-3.99429733484368E-2</v>
-      </c>
-      <c r="Q31">
-        <v>2.2024631149884601E-2</v>
-      </c>
-      <c r="R31">
-        <v>1.88576238273837E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>0</v>
-      </c>
       <c r="B32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.41359250877494302</v>
+        <v>7.2327901603395903E-2</v>
       </c>
       <c r="F32">
-        <v>0.41088790435258998</v>
+        <v>6.2540204804639205E-2</v>
       </c>
       <c r="G32">
-        <v>0.34211793931465301</v>
+        <v>3.45237532918879E-2</v>
       </c>
       <c r="H32">
-        <v>0.32522776405655301</v>
+        <v>9.8354995492400694E-3</v>
       </c>
       <c r="I32">
-        <v>-1.0002772580623299E-2</v>
+        <v>-0.16090890977428601</v>
       </c>
       <c r="J32">
-        <v>1.3024551528731E-2</v>
+        <v>-5.2070461542399298E-2</v>
       </c>
       <c r="K32">
-        <v>0.121593045999389</v>
+        <v>-5.8090563603023504E-3</v>
       </c>
       <c r="L32">
-        <v>9.0791207540051599E-2</v>
+        <v>-1.6342926942888799E-3</v>
       </c>
       <c r="M32">
-        <v>0.18736983988974901</v>
+        <v>-8.8271878362391996E-3</v>
       </c>
       <c r="N32">
-        <v>0.11350386914011899</v>
+        <v>-5.0252144188589901E-3</v>
       </c>
       <c r="O32">
-        <v>6.3736202157348001E-2</v>
+        <v>-6.3656064581461202E-3</v>
       </c>
       <c r="P32">
-        <v>3.1879913937056997E-2</v>
+        <v>-7.3539454455828698E-3</v>
       </c>
       <c r="Q32">
-        <v>0.35748540626689401</v>
+        <v>2.94466232041007E-2</v>
       </c>
       <c r="R32">
-        <v>0.245242867866654</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>2.1978122218089601E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.5</v>
       </c>
       <c r="B33">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -4348,51 +4347,51 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0.12181965733904</v>
+        <v>7.4715530266486502E-2</v>
       </c>
       <c r="F33">
-        <v>0.115875322460899</v>
+        <v>6.5349363699750307E-2</v>
       </c>
       <c r="G33">
-        <v>7.3244517179751306E-2</v>
+        <v>3.3294454087978799E-2</v>
       </c>
       <c r="H33">
-        <v>3.0831589694546701E-2</v>
+        <v>9.8342467429351592E-3</v>
       </c>
       <c r="I33">
-        <v>-0.16859766473228599</v>
+        <v>-0.17585108565133201</v>
       </c>
       <c r="J33">
-        <v>-4.1722740165033301E-2</v>
+        <v>-5.8016905404943399E-2</v>
       </c>
       <c r="K33">
-        <v>-2.2343059613561E-3</v>
+        <v>-6.6195760861759406E-2</v>
       </c>
       <c r="L33">
-        <v>9.8216115109424594E-3</v>
+        <v>-4.9620274821055799E-2</v>
       </c>
       <c r="M33">
-        <v>-4.1358039133850702E-3</v>
+        <v>-6.7308511921754896E-2</v>
       </c>
       <c r="N33">
-        <v>2.6086044901671101E-3</v>
+        <v>-5.3466620786926398E-2</v>
       </c>
       <c r="O33">
-        <v>-4.2607702365087201E-2</v>
+        <v>-5.32256130875376E-2</v>
       </c>
       <c r="P33">
-        <v>-0.10080114369368801</v>
+        <v>-3.99429733484368E-2</v>
       </c>
       <c r="Q33">
-        <v>6.0654579068559103E-2</v>
+        <v>2.2024631149884601E-2</v>
       </c>
       <c r="R33">
-        <v>5.6099909861986499E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.88576238273837E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4404,161 +4403,161 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.40674837802394898</v>
+        <v>7.6483477973740402E-2</v>
       </c>
       <c r="F34">
-        <v>0.39264510260292101</v>
+        <v>6.6378371307455705E-2</v>
       </c>
       <c r="G34">
-        <v>0.34132538858477801</v>
+        <v>3.35910656759019E-2</v>
       </c>
       <c r="H34">
-        <v>0.324473156893754</v>
+        <v>1.08825872219125E-2</v>
       </c>
       <c r="I34">
-        <v>-0.101174962269748</v>
+        <v>-0.180946366559365</v>
       </c>
       <c r="J34">
-        <v>-8.9770109921996605E-2</v>
+        <v>-5.9771325791893898E-2</v>
       </c>
       <c r="K34">
-        <v>2.3336439450052E-2</v>
+        <v>-8.3394050863961497E-2</v>
       </c>
       <c r="L34">
-        <v>6.7646404324579095E-4</v>
+        <v>-6.8444094455491794E-2</v>
       </c>
       <c r="M34">
-        <v>0.122217159526473</v>
+        <v>-7.8950407659903604E-2</v>
       </c>
       <c r="N34">
-        <v>5.7214744458342702E-2</v>
+        <v>-7.2200572757733505E-2</v>
       </c>
       <c r="O34">
-        <v>5.8811056025830102E-2</v>
+        <v>-5.6154300841595797E-2</v>
       </c>
       <c r="P34">
-        <v>6.2870829543728801E-2</v>
+        <v>-5.5886103737597399E-2</v>
       </c>
       <c r="Q34">
-        <v>0.37763293389554098</v>
+        <v>2.2158949126526599E-2</v>
       </c>
       <c r="R34">
-        <v>0.22175060130858701</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.8048159872860899E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.5</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C35" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>7.6483477973740402E-2</v>
+        <v>0.13669432419510499</v>
       </c>
       <c r="F35">
-        <v>6.6378371307455705E-2</v>
+        <v>0.133556422960978</v>
       </c>
       <c r="G35">
-        <v>3.35910656759019E-2</v>
+        <v>8.8034132684122093E-2</v>
       </c>
       <c r="H35">
-        <v>1.08825872219125E-2</v>
+        <v>4.76508951287926E-2</v>
       </c>
       <c r="I35">
-        <v>-0.180946366559365</v>
+        <v>-0.153740183381916</v>
       </c>
       <c r="J35">
-        <v>-5.9771325791893898E-2</v>
+        <v>-1.74943103340085E-2</v>
       </c>
       <c r="K35">
-        <v>-8.3394050863961497E-2</v>
+        <v>7.3984191122947504E-2</v>
       </c>
       <c r="L35">
-        <v>-6.8444094455491794E-2</v>
+        <v>8.2185218147474801E-2</v>
       </c>
       <c r="M35">
-        <v>-7.8950407659903604E-2</v>
+        <v>7.1212371225103793E-2</v>
       </c>
       <c r="N35">
-        <v>-7.2200572757733505E-2</v>
+        <v>7.6545987057850803E-2</v>
       </c>
       <c r="O35">
-        <v>-5.6154300841595797E-2</v>
+        <v>3.4300796276771697E-2</v>
       </c>
       <c r="P35">
-        <v>-5.5886103737597399E-2</v>
+        <v>1.5125065550481801E-2</v>
       </c>
       <c r="Q35">
-        <v>2.2158949126526599E-2</v>
+        <v>8.0583988135130805E-2</v>
       </c>
       <c r="R35">
-        <v>1.8048159872860899E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.7359228864058105E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B36">
         <v>0.2</v>
       </c>
       <c r="C36" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.42524918622058799</v>
+        <v>0.12181965733904</v>
       </c>
       <c r="F36">
-        <v>0.42003666060161199</v>
+        <v>0.115875322460899</v>
       </c>
       <c r="G36">
-        <v>0.35425757480871101</v>
+        <v>7.3244517179751306E-2</v>
       </c>
       <c r="H36">
-        <v>0.33314751577169399</v>
+        <v>3.0831589694546701E-2</v>
       </c>
       <c r="I36">
-        <v>-3.9451326042871201E-2</v>
+        <v>-0.16859766473228599</v>
       </c>
       <c r="J36">
-        <v>-2.4805310862793001E-2</v>
+        <v>-4.1722740165033301E-2</v>
       </c>
       <c r="K36">
-        <v>8.8992982801883294E-2</v>
+        <v>-2.2343059613561E-3</v>
       </c>
       <c r="L36">
-        <v>5.0310883541125402E-2</v>
+        <v>9.8216115109424594E-3</v>
       </c>
       <c r="M36">
-        <v>0.173348026120906</v>
+        <v>-4.1358039133850702E-3</v>
       </c>
       <c r="N36">
-        <v>8.6832566524164795E-2</v>
+        <v>2.6086044901671101E-3</v>
       </c>
       <c r="O36">
-        <v>2.22095365532517E-2</v>
+        <v>-4.2607702365087201E-2</v>
       </c>
       <c r="P36">
-        <v>3.8506265655108597E-2</v>
+        <v>-0.10080114369368801</v>
       </c>
       <c r="Q36">
-        <v>0.36375473227316302</v>
+        <v>6.0654579068559103E-2</v>
       </c>
       <c r="R36">
-        <v>0.241231551750235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.6099909861986499E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.5</v>
       </c>
@@ -4616,13 +4615,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:R37">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="med"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A14:R25">
-      <sortCondition ref="B1:B37"/>
+    <sortState ref="A26:R37">
+      <sortCondition ref="A1:A37"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4635,8 +4629,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20:P22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32:Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5369,7 +5363,7 @@
         <v>7.3296462896105294E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -5425,7 +5419,7 @@
         <v>0.14012604861399899</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -5481,7 +5475,7 @@
         <v>0.21211201779057401</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -5537,7 +5531,7 @@
         <v>0.24183533854966399</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.5</v>
       </c>
@@ -5593,7 +5587,7 @@
         <v>3.4058241512594997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.5</v>
       </c>
@@ -5649,7 +5643,7 @@
         <v>3.4393211327645098E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.5</v>
       </c>
@@ -5705,7 +5699,7 @@
         <v>3.45642696780908E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -5761,7 +5755,7 @@
         <v>0.215058359551489</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -5817,7 +5811,7 @@
         <v>0.24589633658593099</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -5873,7 +5867,7 @@
         <v>0.24992502306624401</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
@@ -5929,7 +5923,7 @@
         <v>7.9403975227007595E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.5</v>
       </c>
@@ -5985,7 +5979,7 @@
         <v>6.4486932443238804E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.5</v>
       </c>
@@ -6041,7 +6035,7 @@
         <v>6.35376312768135E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -6097,121 +6091,121 @@
         <v>0.25885525890701599</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>9.0616784872585898E-2</v>
+        <v>0.385848503370949</v>
       </c>
       <c r="F27">
-        <v>6.6136803692062707E-2</v>
+        <v>0.36963979900791</v>
       </c>
       <c r="G27">
-        <v>7.2272294239484294E-2</v>
+        <v>0.32233900495783102</v>
       </c>
       <c r="H27">
-        <v>2.64505682125919E-2</v>
+        <v>0.30467342859665902</v>
       </c>
       <c r="I27">
-        <v>0.26831263196772898</v>
+        <v>0.19997580522094699</v>
       </c>
       <c r="J27">
-        <v>6.4549262299600493E-2</v>
+        <v>0.104741695609101</v>
       </c>
       <c r="K27">
-        <v>9.1882915311988195E-2</v>
+        <v>7.1788883937242504E-2</v>
       </c>
       <c r="L27">
-        <v>3.4211028450356999E-2</v>
+        <v>8.7922338744301099E-3</v>
       </c>
       <c r="M27">
-        <v>8.8974582706680197E-2</v>
+        <v>0.146794039205974</v>
       </c>
       <c r="N27">
-        <v>3.3402111265170703E-2</v>
+        <v>5.3334065628869998E-2</v>
       </c>
       <c r="O27">
-        <v>8.5170839594355105E-2</v>
+        <v>9.0266885474818204E-2</v>
       </c>
       <c r="P27">
-        <v>3.10439755710313E-2</v>
+        <v>5.3887578019350103E-2</v>
       </c>
       <c r="Q27">
-        <v>7.4422064432359603E-2</v>
+        <v>0.36042487183168598</v>
       </c>
       <c r="R27">
-        <v>3.4837127925387901E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.23337255525068601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
       <c r="B28">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.39377269896893202</v>
+        <v>0.41190720493080202</v>
       </c>
       <c r="F28">
-        <v>0.390815416329021</v>
+        <v>0.39346321578492599</v>
       </c>
       <c r="G28">
-        <v>0.33636605938094299</v>
+        <v>0.34821607423628298</v>
       </c>
       <c r="H28">
-        <v>0.30411260046240501</v>
+        <v>0.32551948195012997</v>
       </c>
       <c r="I28">
-        <v>0.32929677705501798</v>
+        <v>0.19407402716494501</v>
       </c>
       <c r="J28">
-        <v>0.19237086458351901</v>
+        <v>0.10432959365743601</v>
       </c>
       <c r="K28">
-        <v>0.29277584823348302</v>
+        <v>6.5519550367572899E-2</v>
       </c>
       <c r="L28">
-        <v>0.275332874449081</v>
+        <v>6.27140415791073E-3</v>
       </c>
       <c r="M28">
-        <v>0.30395183300453599</v>
+        <v>0.148018477441272</v>
       </c>
       <c r="N28">
-        <v>0.27413087541035602</v>
+        <v>6.6194509442864202E-2</v>
       </c>
       <c r="O28">
-        <v>0.25783380962883601</v>
+        <v>7.6920597772740101E-2</v>
       </c>
       <c r="P28">
-        <v>0.16620316601856899</v>
+        <v>6.6669221474724705E-2</v>
       </c>
       <c r="Q28">
-        <v>0.34836252987842198</v>
+        <v>0.38503035837042299</v>
       </c>
       <c r="R28">
-        <v>0.27266711470595401</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.230311278199441</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B29">
         <v>0.2</v>
@@ -6223,54 +6217,54 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0.157481054544684</v>
+        <v>0.39377269896893202</v>
       </c>
       <c r="F29">
-        <v>0.13700862343984699</v>
+        <v>0.390815416329021</v>
       </c>
       <c r="G29">
-        <v>0.13063506205247699</v>
+        <v>0.33636605938094299</v>
       </c>
       <c r="H29">
-        <v>6.45136721367634E-2</v>
+        <v>0.30411260046240501</v>
       </c>
       <c r="I29">
-        <v>0.31255420864934802</v>
+        <v>0.32929677705501798</v>
       </c>
       <c r="J29">
-        <v>8.4688625504924203E-2</v>
+        <v>0.19237086458351901</v>
       </c>
       <c r="K29">
-        <v>0.138450089983221</v>
+        <v>0.29277584823348302</v>
       </c>
       <c r="L29">
-        <v>9.26091147766578E-2</v>
+        <v>0.275332874449081</v>
       </c>
       <c r="M29">
-        <v>0.13202653821584101</v>
+        <v>0.30395183300453599</v>
       </c>
       <c r="N29">
-        <v>8.7390518833409397E-2</v>
+        <v>0.27413087541035602</v>
       </c>
       <c r="O29">
-        <v>0.12603074278388801</v>
+        <v>0.25783380962883601</v>
       </c>
       <c r="P29">
-        <v>6.4601819097522703E-2</v>
+        <v>0.16620316601856899</v>
       </c>
       <c r="Q29">
-        <v>0.13124654569704799</v>
+        <v>0.34836252987842198</v>
       </c>
       <c r="R29">
-        <v>8.9336795163627594E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.27266711470595401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -6279,166 +6273,166 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.385848503370949</v>
+        <v>0.41914501185583403</v>
       </c>
       <c r="F30">
-        <v>0.36963979900791</v>
+        <v>0.41170229658539398</v>
       </c>
       <c r="G30">
-        <v>0.32233900495783102</v>
+        <v>0.35340938652186599</v>
       </c>
       <c r="H30">
-        <v>0.30467342859665902</v>
+        <v>0.32669538175359603</v>
       </c>
       <c r="I30">
-        <v>0.19997580522094699</v>
+        <v>0.30311672827157399</v>
       </c>
       <c r="J30">
-        <v>0.104741695609101</v>
+        <v>0.145845777552532</v>
       </c>
       <c r="K30">
-        <v>7.1788883937242504E-2</v>
+        <v>0.17524101028495701</v>
       </c>
       <c r="L30">
-        <v>8.7922338744301099E-3</v>
+        <v>0.11689319782948</v>
       </c>
       <c r="M30">
-        <v>0.146794039205974</v>
+        <v>0.21435240212977599</v>
       </c>
       <c r="N30">
-        <v>5.3334065628869998E-2</v>
+        <v>0.12951251257740901</v>
       </c>
       <c r="O30">
-        <v>9.0266885474818204E-2</v>
+        <v>0.19335123603558901</v>
       </c>
       <c r="P30">
-        <v>5.3887578019350103E-2</v>
+        <v>9.5822625300144001E-2</v>
       </c>
       <c r="Q30">
-        <v>0.36042487183168598</v>
+        <v>0.36876473892853801</v>
       </c>
       <c r="R30">
-        <v>0.23337255525068601</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.26889627652882397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0.2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0.43066770604122301</v>
+      </c>
+      <c r="F31">
+        <v>0.42077881025346198</v>
+      </c>
+      <c r="G31">
+        <v>0.36447415077927298</v>
+      </c>
+      <c r="H31">
+        <v>0.33448887748055101</v>
+      </c>
+      <c r="I31">
+        <v>0.28582137363303201</v>
+      </c>
+      <c r="J31">
+        <v>0.14727107944295201</v>
+      </c>
+      <c r="K31">
+        <v>0.14523713410195199</v>
+      </c>
+      <c r="L31">
+        <v>7.8039417139741094E-2</v>
+      </c>
+      <c r="M31">
+        <v>0.20024381579841999</v>
+      </c>
+      <c r="N31">
+        <v>0.101229613838761</v>
+      </c>
+      <c r="O31">
+        <v>0.16406082865410901</v>
+      </c>
+      <c r="P31">
+        <v>9.1364044840528694E-2</v>
+      </c>
+      <c r="Q31">
+        <v>0.37547278961954</v>
+      </c>
+      <c r="R31">
+        <v>0.265964824990436</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>0.5</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>9.2758696964963305E-2</v>
-      </c>
-      <c r="F31">
-        <v>6.92701963238362E-2</v>
-      </c>
-      <c r="G31">
-        <v>7.3627214245878703E-2</v>
-      </c>
-      <c r="H31">
-        <v>2.7991807083577399E-2</v>
-      </c>
-      <c r="I31">
-        <v>0.27342361870388399</v>
-      </c>
-      <c r="J31">
-        <v>6.8711909330540194E-2</v>
-      </c>
-      <c r="K31">
-        <v>0.13750273643174599</v>
-      </c>
-      <c r="L31">
-        <v>6.5642790438606394E-2</v>
-      </c>
-      <c r="M31">
-        <v>0.130337985716827</v>
-      </c>
-      <c r="N31">
-        <v>6.7780265487904501E-2</v>
-      </c>
-      <c r="O31">
-        <v>9.7103920425974599E-2</v>
-      </c>
-      <c r="P31">
-        <v>5.6434748796041802E-2</v>
-      </c>
-      <c r="Q31">
-        <v>7.5070820513781902E-2</v>
-      </c>
-      <c r="R31">
-        <v>3.5168440920095703E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>0</v>
-      </c>
       <c r="B32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.41914501185583403</v>
+        <v>9.0616784872585898E-2</v>
       </c>
       <c r="F32">
-        <v>0.41170229658539398</v>
+        <v>6.6136803692062707E-2</v>
       </c>
       <c r="G32">
-        <v>0.35340938652186599</v>
+        <v>7.2272294239484294E-2</v>
       </c>
       <c r="H32">
-        <v>0.32669538175359603</v>
+        <v>2.64505682125919E-2</v>
       </c>
       <c r="I32">
-        <v>0.30311672827157399</v>
+        <v>0.26831263196772898</v>
       </c>
       <c r="J32">
-        <v>0.145845777552532</v>
+        <v>6.4549262299600493E-2</v>
       </c>
       <c r="K32">
-        <v>0.17524101028495701</v>
+        <v>9.1882915311988195E-2</v>
       </c>
       <c r="L32">
-        <v>0.11689319782948</v>
+        <v>3.4211028450356999E-2</v>
       </c>
       <c r="M32">
-        <v>0.21435240212977599</v>
+        <v>8.8974582706680197E-2</v>
       </c>
       <c r="N32">
-        <v>0.12951251257740901</v>
+        <v>3.3402111265170703E-2</v>
       </c>
       <c r="O32">
-        <v>0.19335123603558901</v>
+        <v>8.5170839594355105E-2</v>
       </c>
       <c r="P32">
-        <v>9.5822625300144001E-2</v>
+        <v>3.10439755710313E-2</v>
       </c>
       <c r="Q32">
-        <v>0.36876473892853801</v>
+        <v>7.4422064432359603E-2</v>
       </c>
       <c r="R32">
-        <v>0.26889627652882397</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.4837127925387901E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.5</v>
       </c>
       <c r="B33">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -6447,51 +6441,51 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0.14453967822036701</v>
+        <v>9.2758696964963305E-2</v>
       </c>
       <c r="F33">
-        <v>0.119985279134943</v>
+        <v>6.92701963238362E-2</v>
       </c>
       <c r="G33">
-        <v>0.12012541457548601</v>
+        <v>7.3627214245878703E-2</v>
       </c>
       <c r="H33">
-        <v>5.2672814512440297E-2</v>
+        <v>2.7991807083577399E-2</v>
       </c>
       <c r="I33">
-        <v>0.31428887170208197</v>
+        <v>0.27342361870388399</v>
       </c>
       <c r="J33">
-        <v>0.102262963540364</v>
+        <v>6.8711909330540194E-2</v>
       </c>
       <c r="K33">
-        <v>0.14029352860441399</v>
+        <v>0.13750273643174599</v>
       </c>
       <c r="L33">
-        <v>5.1320094874137898E-2</v>
+        <v>6.5642790438606394E-2</v>
       </c>
       <c r="M33">
-        <v>0.13108453194872699</v>
+        <v>0.130337985716827</v>
       </c>
       <c r="N33">
-        <v>5.0913286685377299E-2</v>
+        <v>6.7780265487904501E-2</v>
       </c>
       <c r="O33">
-        <v>0.15021876367620399</v>
+        <v>9.7103920425974599E-2</v>
       </c>
       <c r="P33">
-        <v>0.138417594459737</v>
+        <v>5.6434748796041802E-2</v>
       </c>
       <c r="Q33">
-        <v>0.12168938198281901</v>
+        <v>7.5070820513781902E-2</v>
       </c>
       <c r="R33">
-        <v>7.2641514392633305E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.5168440920095703E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -6503,161 +6497,161 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.41190720493080202</v>
+        <v>9.4652708195794702E-2</v>
       </c>
       <c r="F34">
-        <v>0.39346321578492599</v>
+        <v>7.0129096160672505E-2</v>
       </c>
       <c r="G34">
-        <v>0.34821607423628298</v>
+        <v>7.2977483094140302E-2</v>
       </c>
       <c r="H34">
-        <v>0.32551948195012997</v>
+        <v>2.80752991538957E-2</v>
       </c>
       <c r="I34">
-        <v>0.19407402716494501</v>
+        <v>0.28447471507701899</v>
       </c>
       <c r="J34">
-        <v>0.10432959365743601</v>
+        <v>7.1844439488032402E-2</v>
       </c>
       <c r="K34">
-        <v>6.5519550367572899E-2</v>
+        <v>0.15836299311260901</v>
       </c>
       <c r="L34">
-        <v>6.27140415791073E-3</v>
+        <v>8.2843841717359298E-2</v>
       </c>
       <c r="M34">
-        <v>0.148018477441272</v>
+        <v>0.143382299233483</v>
       </c>
       <c r="N34">
-        <v>6.6194509442864202E-2</v>
+        <v>8.5585163918059606E-2</v>
       </c>
       <c r="O34">
-        <v>7.6920597772740101E-2</v>
+        <v>0.11268527746373901</v>
       </c>
       <c r="P34">
-        <v>6.6669221474724705E-2</v>
+        <v>7.6369348584826302E-2</v>
       </c>
       <c r="Q34">
-        <v>0.38503035837042299</v>
+        <v>7.4467935614955003E-2</v>
       </c>
       <c r="R34">
-        <v>0.230311278199441</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.42866921461593E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.5</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C35" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>9.4652708195794702E-2</v>
+        <v>0.157481054544684</v>
       </c>
       <c r="F35">
-        <v>7.0129096160672505E-2</v>
+        <v>0.13700862343984699</v>
       </c>
       <c r="G35">
-        <v>7.2977483094140302E-2</v>
+        <v>0.13063506205247699</v>
       </c>
       <c r="H35">
-        <v>2.80752991538957E-2</v>
+        <v>6.45136721367634E-2</v>
       </c>
       <c r="I35">
-        <v>0.28447471507701899</v>
+        <v>0.31255420864934802</v>
       </c>
       <c r="J35">
-        <v>7.1844439488032402E-2</v>
+        <v>8.4688625504924203E-2</v>
       </c>
       <c r="K35">
-        <v>0.15836299311260901</v>
+        <v>0.138450089983221</v>
       </c>
       <c r="L35">
-        <v>8.2843841717359298E-2</v>
+        <v>9.26091147766578E-2</v>
       </c>
       <c r="M35">
-        <v>0.143382299233483</v>
+        <v>0.13202653821584101</v>
       </c>
       <c r="N35">
-        <v>8.5585163918059606E-2</v>
+        <v>8.7390518833409397E-2</v>
       </c>
       <c r="O35">
-        <v>0.11268527746373901</v>
+        <v>0.12603074278388801</v>
       </c>
       <c r="P35">
-        <v>7.6369348584826302E-2</v>
+        <v>6.4601819097522703E-2</v>
       </c>
       <c r="Q35">
-        <v>7.4467935614955003E-2</v>
+        <v>0.13124654569704799</v>
       </c>
       <c r="R35">
-        <v>3.42866921461593E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.9336795163627594E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B36">
         <v>0.2</v>
       </c>
       <c r="C36" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.43066770604122301</v>
+        <v>0.14453967822036701</v>
       </c>
       <c r="F36">
-        <v>0.42077881025346198</v>
+        <v>0.119985279134943</v>
       </c>
       <c r="G36">
-        <v>0.36447415077927298</v>
+        <v>0.12012541457548601</v>
       </c>
       <c r="H36">
-        <v>0.33448887748055101</v>
+        <v>5.2672814512440297E-2</v>
       </c>
       <c r="I36">
-        <v>0.28582137363303201</v>
+        <v>0.31428887170208197</v>
       </c>
       <c r="J36">
-        <v>0.14727107944295201</v>
+        <v>0.102262963540364</v>
       </c>
       <c r="K36">
-        <v>0.14523713410195199</v>
+        <v>0.14029352860441399</v>
       </c>
       <c r="L36">
-        <v>7.8039417139741094E-2</v>
+        <v>5.1320094874137898E-2</v>
       </c>
       <c r="M36">
-        <v>0.20024381579841999</v>
+        <v>0.13108453194872699</v>
       </c>
       <c r="N36">
-        <v>0.101229613838761</v>
+        <v>5.0913286685377299E-2</v>
       </c>
       <c r="O36">
-        <v>0.16406082865410901</v>
+        <v>0.15021876367620399</v>
       </c>
       <c r="P36">
-        <v>9.1364044840528694E-2</v>
+        <v>0.138417594459737</v>
       </c>
       <c r="Q36">
-        <v>0.37547278961954</v>
+        <v>0.12168938198281901</v>
       </c>
       <c r="R36">
-        <v>0.265964824990436</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.2641514392633305E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.5</v>
       </c>
@@ -6717,11 +6711,11 @@
   <autoFilter ref="A1:R37">
     <filterColumn colId="3">
       <filters>
-        <filter val="med"/>
+        <filter val="high"/>
       </filters>
     </filterColumn>
-    <sortState ref="A14:R25">
-      <sortCondition ref="B1:B37"/>
+    <sortState ref="A26:R37">
+      <sortCondition ref="A1:A37"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6733,8 +6727,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7637,10 +7631,10 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -7649,22 +7643,22 @@
         <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>0.89</v>
+        <v>0.375</v>
       </c>
       <c r="F17" s="2">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>0.91691995947315097</v>
+        <v>0.48542713567839202</v>
       </c>
       <c r="H17" s="2">
-        <v>0.88278008298755195</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="I17" s="2">
-        <v>0.875</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="J17" s="2">
-        <v>0.78500000000000003</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>21</v>
@@ -7673,30 +7667,30 @@
         <v>21</v>
       </c>
       <c r="M17" s="2">
-        <v>0.94594594594594605</v>
+        <v>0.72574850299401195</v>
       </c>
       <c r="N17" s="2">
-        <v>0.95</v>
+        <v>0.237713139418255</v>
       </c>
       <c r="O17" s="2">
-        <v>0.92531120331950201</v>
+        <v>0.74472361809045196</v>
       </c>
       <c r="P17" s="2">
-        <v>0.94899999999999995</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="Q17" s="2">
-        <v>0.89800000000000002</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="R17" s="2">
-        <v>0.85799999999999998</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -7705,22 +7699,22 @@
         <v>1</v>
       </c>
       <c r="E18" s="2">
-        <v>0.879</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="F18" s="2">
-        <v>0.26300000000000001</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>0.92016376663254895</v>
+        <v>0.40201005025125602</v>
       </c>
       <c r="H18" s="2">
-        <v>0.910064239828694</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="I18" s="2">
-        <v>0.79</v>
+        <v>0.871</v>
       </c>
       <c r="J18" s="2">
-        <v>0.57199999999999995</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>21</v>
@@ -7729,30 +7723,30 @@
         <v>21</v>
       </c>
       <c r="M18" s="2">
-        <v>0.917933130699088</v>
+        <v>0.91185897435897401</v>
       </c>
       <c r="N18" s="2">
-        <v>0.746</v>
+        <v>0.81176470588235305</v>
       </c>
       <c r="O18" s="2">
-        <v>0.93604651162790697</v>
+        <v>0.84879032258064502</v>
       </c>
       <c r="P18" s="2">
-        <v>0.93378226711559997</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="Q18" s="2">
-        <v>0.93500000000000005</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="R18" s="2">
-        <v>0.86699999999999999</v>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -7761,22 +7755,22 @@
         <v>1</v>
       </c>
       <c r="E19" s="2">
-        <v>0.86599999999999999</v>
+        <v>0.156</v>
       </c>
       <c r="F19" s="2">
-        <v>0.24199999999999999</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0.92805755395683498</v>
+        <v>0.33366935483871002</v>
       </c>
       <c r="H19" s="2">
-        <v>0.918432203389831</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>0.74299999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="J19" s="2">
-        <v>0.505</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>21</v>
@@ -7785,30 +7779,30 @@
         <v>21</v>
       </c>
       <c r="M19" s="2">
-        <v>0.920282542885974</v>
+        <v>0.92351816443594603</v>
       </c>
       <c r="N19" s="2">
-        <v>0.61799999999999999</v>
+        <v>0.90328151986183103</v>
       </c>
       <c r="O19" s="2">
-        <v>0.91925465838509302</v>
+        <v>0.82914046121593299</v>
       </c>
       <c r="P19" s="2">
-        <v>0.91472868217054304</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="Q19" s="2">
-        <v>0.91900000000000004</v>
+        <v>0.377</v>
       </c>
       <c r="R19" s="2">
-        <v>0.86199999999999999</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B20">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -7817,22 +7811,22 @@
         <v>1</v>
       </c>
       <c r="E20" s="2">
-        <v>0.375</v>
+        <v>0.89</v>
       </c>
       <c r="F20" s="2">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="G20" s="2">
-        <v>0.48542713567839202</v>
+        <v>0.91691995947315097</v>
       </c>
       <c r="H20" s="2">
-        <v>0.14699999999999999</v>
+        <v>0.88278008298755195</v>
       </c>
       <c r="I20" s="2">
-        <v>0.84899999999999998</v>
+        <v>0.875</v>
       </c>
       <c r="J20" s="2">
-        <v>0.73299999999999998</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>21</v>
@@ -7841,30 +7835,30 @@
         <v>21</v>
       </c>
       <c r="M20" s="2">
-        <v>0.72574850299401195</v>
+        <v>0.94594594594594605</v>
       </c>
       <c r="N20" s="2">
-        <v>0.237713139418255</v>
+        <v>0.95</v>
       </c>
       <c r="O20" s="2">
-        <v>0.74472361809045196</v>
+        <v>0.92531120331950201</v>
       </c>
       <c r="P20" s="2">
-        <v>0.55400000000000005</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="Q20" s="2">
-        <v>0.47699999999999998</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="R20" s="2">
-        <v>0.111</v>
+        <v>0.85799999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B21">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -7873,22 +7867,22 @@
         <v>1</v>
       </c>
       <c r="E21" s="2">
-        <v>0.21199999999999999</v>
+        <v>0.879</v>
       </c>
       <c r="F21" s="2">
-        <v>0</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="G21" s="2">
-        <v>0.40201005025125602</v>
+        <v>0.92016376663254895</v>
       </c>
       <c r="H21" s="2">
-        <v>7.0000000000000001E-3</v>
+        <v>0.910064239828694</v>
       </c>
       <c r="I21" s="2">
-        <v>0.871</v>
+        <v>0.79</v>
       </c>
       <c r="J21" s="2">
-        <v>0.77100000000000002</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>21</v>
@@ -7897,30 +7891,30 @@
         <v>21</v>
       </c>
       <c r="M21" s="2">
-        <v>0.91185897435897401</v>
+        <v>0.917933130699088</v>
       </c>
       <c r="N21" s="2">
-        <v>0.81176470588235305</v>
+        <v>0.746</v>
       </c>
       <c r="O21" s="2">
-        <v>0.84879032258064502</v>
+        <v>0.93604651162790697</v>
       </c>
       <c r="P21" s="2">
-        <v>0.81399999999999995</v>
+        <v>0.93378226711559997</v>
       </c>
       <c r="Q21" s="2">
-        <v>0.41499999999999998</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="R21" s="2">
-        <v>0.19600000000000001</v>
+        <v>0.86699999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B22">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -7929,22 +7923,22 @@
         <v>1</v>
       </c>
       <c r="E22" s="2">
-        <v>0.156</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="F22" s="2">
-        <v>0</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="G22" s="2">
-        <v>0.33366935483871002</v>
+        <v>0.92805755395683498</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>0.918432203389831</v>
       </c>
       <c r="I22" s="2">
-        <v>0.85</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="J22" s="2">
-        <v>0.64500000000000002</v>
+        <v>0.505</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>21</v>
@@ -7953,22 +7947,22 @@
         <v>21</v>
       </c>
       <c r="M22" s="2">
-        <v>0.92351816443594603</v>
+        <v>0.920282542885974</v>
       </c>
       <c r="N22" s="2">
-        <v>0.90328151986183103</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="O22" s="2">
-        <v>0.82914046121593299</v>
+        <v>0.91925465838509302</v>
       </c>
       <c r="P22" s="2">
-        <v>0.79400000000000004</v>
+        <v>0.91472868217054304</v>
       </c>
       <c r="Q22" s="2">
-        <v>0.377</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="R22" s="2">
-        <v>0.22</v>
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -8197,34 +8191,34 @@
     </row>
     <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.82099999999999995</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0.91277890466531397</v>
+        <v>2.8513238289205701E-2</v>
       </c>
       <c r="H27">
-        <v>0.91062039957939001</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0.80500000000000005</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="J27">
-        <v>0.622</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="K27" t="s">
         <v>21</v>
@@ -8233,22 +8227,22 @@
         <v>21</v>
       </c>
       <c r="M27">
-        <v>0.96</v>
+        <v>0.99095022624434403</v>
       </c>
       <c r="N27">
-        <v>0.94899999999999995</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.94488188976377996</v>
+        <v>0.93742889647326499</v>
       </c>
       <c r="P27">
-        <v>0.960498960498961</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="Q27">
-        <v>0.89200000000000002</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="R27">
-        <v>0.81899999999999995</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -8256,31 +8250,31 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>5.3999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0.18960244648318</v>
+        <v>1.14107883817427E-2</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0.79600000000000004</v>
+        <v>0.873</v>
       </c>
       <c r="J28">
-        <v>0.63200000000000001</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="K28" t="s">
         <v>21</v>
@@ -8289,27 +8283,27 @@
         <v>21</v>
       </c>
       <c r="M28">
-        <v>0.62869660460021903</v>
+        <v>0.98404255319148903</v>
       </c>
       <c r="N28">
-        <v>5.9059059059059102E-2</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.54814814814814805</v>
+        <v>0.96619718309859204</v>
       </c>
       <c r="P28">
-        <v>0.47299999999999998</v>
+        <v>0.88688688688688699</v>
       </c>
       <c r="Q28">
-        <v>0.35899999999999999</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="R28">
-        <v>0.26100000000000001</v>
+        <v>0.26600000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B29">
         <v>0.2</v>
@@ -8321,22 +8315,22 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0.54300000000000004</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F29">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0.69520897043832797</v>
+        <v>0.18960244648318</v>
       </c>
       <c r="H29">
-        <v>0.66581956797967001</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0.79600000000000004</v>
       </c>
       <c r="J29">
-        <v>0.82499999999999996</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="K29" t="s">
         <v>21</v>
@@ -8345,22 +8339,22 @@
         <v>21</v>
       </c>
       <c r="M29">
-        <v>0.83867735470941895</v>
+        <v>0.62869660460021903</v>
       </c>
       <c r="N29">
-        <v>0.497</v>
+        <v>5.9059059059059102E-2</v>
       </c>
       <c r="O29">
-        <v>0.83689839572192504</v>
+        <v>0.54814814814814805</v>
       </c>
       <c r="P29">
-        <v>0.89716684155299098</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="Q29">
-        <v>0.79</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="R29">
-        <v>0.40799999999999997</v>
+        <v>0.26100000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -8368,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -8377,22 +8371,22 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2.8513238289205701E-2</v>
+        <v>0.116182572614108</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0.88100000000000001</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="J30">
-        <v>0.67400000000000004</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="K30" t="s">
         <v>21</v>
@@ -8401,54 +8395,54 @@
         <v>21</v>
       </c>
       <c r="M30">
-        <v>0.99095022624434403</v>
+        <v>0.89076923076923098</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.75438596491228105</v>
       </c>
       <c r="O30">
-        <v>0.93742889647326499</v>
+        <v>0.78286558345642498</v>
       </c>
       <c r="P30">
-        <v>0.88500000000000001</v>
+        <v>0.84884884884884904</v>
       </c>
       <c r="Q30">
-        <v>5.7000000000000002E-2</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="R30">
-        <v>0.37</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="s">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.86199999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="F31">
-        <v>0.221</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.92008196721311497</v>
+        <v>7.6053442959917797E-2</v>
       </c>
       <c r="H31">
-        <v>0.89669861554845598</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0.752</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="J31">
-        <v>0.51600000000000001</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="K31" t="s">
         <v>21</v>
@@ -8457,54 +8451,54 @@
         <v>21</v>
       </c>
       <c r="M31">
-        <v>0.91356783919597995</v>
+        <v>0.92084942084942101</v>
       </c>
       <c r="N31">
-        <v>0.72199999999999998</v>
+        <v>0.90756302521008403</v>
       </c>
       <c r="O31">
-        <v>0.93693693693693703</v>
+        <v>0.82196969696969702</v>
       </c>
       <c r="P31">
-        <v>0.94017094017094005</v>
+        <v>0.76161616161616197</v>
       </c>
       <c r="Q31">
-        <v>0.92700000000000005</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="R31">
-        <v>0.84199999999999997</v>
+        <v>0.28599999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1.4999999999999999E-2</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="G32">
-        <v>0.116182572614108</v>
+        <v>0.91277890466531397</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>0.91062039957939001</v>
       </c>
       <c r="I32">
-        <v>0.83099999999999996</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="J32">
-        <v>0.76900000000000002</v>
+        <v>0.622</v>
       </c>
       <c r="K32" t="s">
         <v>21</v>
@@ -8513,22 +8507,22 @@
         <v>21</v>
       </c>
       <c r="M32">
-        <v>0.89076923076923098</v>
+        <v>0.96</v>
       </c>
       <c r="N32">
-        <v>0.75438596491228105</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="O32">
-        <v>0.78286558345642498</v>
+        <v>0.94488188976377996</v>
       </c>
       <c r="P32">
-        <v>0.84884884884884904</v>
+        <v>0.960498960498961</v>
       </c>
       <c r="Q32">
-        <v>0.29099999999999998</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="R32">
-        <v>0.28000000000000003</v>
+        <v>0.81899999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -8536,7 +8530,7 @@
         <v>0.5</v>
       </c>
       <c r="B33">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -8545,22 +8539,22 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0.65</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="F33">
-        <v>0.02</v>
+        <v>0.221</v>
       </c>
       <c r="G33">
-        <v>0.75102459016393397</v>
+        <v>0.92008196721311497</v>
       </c>
       <c r="H33">
-        <v>0.77671232876712304</v>
+        <v>0.89669861554845598</v>
       </c>
       <c r="I33">
-        <v>0.78400000000000003</v>
+        <v>0.752</v>
       </c>
       <c r="J33">
-        <v>0.76700000000000002</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="K33" t="s">
         <v>21</v>
@@ -8569,27 +8563,27 @@
         <v>21</v>
       </c>
       <c r="M33">
-        <v>0.91725529767911196</v>
+        <v>0.91356783919597995</v>
       </c>
       <c r="N33">
-        <v>0.92400000000000004</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="O33">
-        <v>0.91666666666666696</v>
+        <v>0.93693693693693703</v>
       </c>
       <c r="P33">
-        <v>0.99198717948717996</v>
+        <v>0.94017094017094005</v>
       </c>
       <c r="Q33">
-        <v>0.84499999999999997</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="R33">
-        <v>0.59499999999999997</v>
+        <v>0.84199999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -8601,22 +8595,22 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="G34">
-        <v>1.14107883817427E-2</v>
+        <v>0.91402251791197497</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>0.90501043841336104</v>
       </c>
       <c r="I34">
-        <v>0.873</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="J34">
-        <v>0.54800000000000004</v>
+        <v>0.497</v>
       </c>
       <c r="K34" t="s">
         <v>21</v>
@@ -8625,22 +8619,22 @@
         <v>21</v>
       </c>
       <c r="M34">
-        <v>0.98404255319148903</v>
+        <v>0.89329268292682895</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="O34">
-        <v>0.96619718309859204</v>
+        <v>0.90769230769230802</v>
       </c>
       <c r="P34">
-        <v>0.88688688688688699</v>
+        <v>0.93069306930693096</v>
       </c>
       <c r="Q34">
-        <v>5.8000000000000003E-2</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="R34">
-        <v>0.26600000000000001</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -8648,87 +8642,87 @@
         <v>0.5</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C35" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0.85099999999999998</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="F35">
-        <v>0.20399999999999999</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G35">
-        <v>0.91402251791197497</v>
+        <v>0.69520897043832797</v>
       </c>
       <c r="H35">
-        <v>0.90501043841336104</v>
+        <v>0.66581956797967001</v>
       </c>
       <c r="I35">
-        <v>0.72899999999999998</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="J35">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="K35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35">
+        <v>0.83867735470941895</v>
+      </c>
+      <c r="N35">
         <v>0.497</v>
       </c>
-      <c r="K35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M35">
-        <v>0.89329268292682895</v>
-      </c>
-      <c r="N35">
-        <v>0.59199999999999997</v>
-      </c>
       <c r="O35">
-        <v>0.90769230769230802</v>
+        <v>0.83689839572192504</v>
       </c>
       <c r="P35">
-        <v>0.93069306930693096</v>
+        <v>0.89716684155299098</v>
       </c>
       <c r="Q35">
-        <v>0.92400000000000004</v>
+        <v>0.79</v>
       </c>
       <c r="R35">
-        <v>0.871</v>
+        <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B36">
         <v>0.2</v>
       </c>
       <c r="C36" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.01</v>
+        <v>0.65</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G36">
-        <v>7.6053442959917797E-2</v>
+        <v>0.75102459016393397</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>0.77671232876712304</v>
       </c>
       <c r="I36">
-        <v>0.84099999999999997</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="J36">
-        <v>0.76600000000000001</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="K36" t="s">
         <v>21</v>
@@ -8737,22 +8731,22 @@
         <v>21</v>
       </c>
       <c r="M36">
-        <v>0.92084942084942101</v>
+        <v>0.91725529767911196</v>
       </c>
       <c r="N36">
-        <v>0.90756302521008403</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="O36">
-        <v>0.82196969696969702</v>
+        <v>0.91666666666666696</v>
       </c>
       <c r="P36">
-        <v>0.76161616161616197</v>
+        <v>0.99198717948717996</v>
       </c>
       <c r="Q36">
-        <v>0.29899999999999999</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="R36">
-        <v>0.28599999999999998</v>
+        <v>0.59499999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -8819,7 +8813,7 @@
       </filters>
     </filterColumn>
     <sortState ref="A14:R25">
-      <sortCondition ref="B1:B37"/>
+      <sortCondition ref="A1:A37"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
